--- a/assets/documents/templateData/pagoJuguetes.xlsx
+++ b/assets/documents/templateData/pagoJuguetes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="488">
   <si>
     <t>Estado</t>
   </si>
@@ -42,6 +42,1443 @@
   </si>
   <si>
     <t>Total de beneficiarios</t>
+  </si>
+  <si>
+    <t>CIUDAD DE MÉXICO</t>
+  </si>
+  <si>
+    <t>PERMANENTE BASE</t>
+  </si>
+  <si>
+    <t>EILE920528RXA</t>
+  </si>
+  <si>
+    <t>0317927</t>
+  </si>
+  <si>
+    <t>LOPEZ ESPINOSA EDUARDO DANIEL</t>
+  </si>
+  <si>
+    <t>ENFERMERA DE ATENCION CLINICA</t>
+  </si>
+  <si>
+    <t>M12002</t>
+  </si>
+  <si>
+    <t>PUCY890607KT9</t>
+  </si>
+  <si>
+    <t>0316940</t>
+  </si>
+  <si>
+    <t>CASTILLO PULIDO YANETH DEL SOCORRO</t>
+  </si>
+  <si>
+    <t>VIPE850920F24</t>
+  </si>
+  <si>
+    <t>0320038</t>
+  </si>
+  <si>
+    <t>PEREZ VILLAR ELVA GUADALUPE</t>
+  </si>
+  <si>
+    <t>PSICOLOGO</t>
+  </si>
+  <si>
+    <t>M12009</t>
+  </si>
+  <si>
+    <t>HEGC910108649</t>
+  </si>
+  <si>
+    <t>0318397</t>
+  </si>
+  <si>
+    <t>GARCIA HERNANDEZ CECILIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>MACT8805281J2</t>
+  </si>
+  <si>
+    <t>0316729</t>
+  </si>
+  <si>
+    <t>CASTELLANOS MARROQUIN TERESA LETICIA</t>
+  </si>
+  <si>
+    <t>GAGC941021CE3</t>
+  </si>
+  <si>
+    <t>0317973</t>
+  </si>
+  <si>
+    <t>GUILLEN GARCIA CIELO ARMINDA</t>
+  </si>
+  <si>
+    <t>AUAN881225AY6</t>
+  </si>
+  <si>
+    <t>0316379</t>
+  </si>
+  <si>
+    <t>AGUILAR AGUILAR NANCY MANUELA</t>
+  </si>
+  <si>
+    <t>JINE8301253W4</t>
+  </si>
+  <si>
+    <t>0316088</t>
+  </si>
+  <si>
+    <t>NANDAYAPA JIMENEZ ELVIRA DEL SOCORRO</t>
+  </si>
+  <si>
+    <t>GOGA910401SP5</t>
+  </si>
+  <si>
+    <t>0317797</t>
+  </si>
+  <si>
+    <t>GOMEZ GOMEZ JOSE ABRAHAM</t>
+  </si>
+  <si>
+    <t>DIGL881027RA0</t>
+  </si>
+  <si>
+    <t>0316125</t>
+  </si>
+  <si>
+    <t>GOMEZ DIAZ LILIA</t>
+  </si>
+  <si>
+    <t>SOFM800811KA5</t>
+  </si>
+  <si>
+    <t>0318291</t>
+  </si>
+  <si>
+    <t>FLORES SOSA MELINA ISABEL</t>
+  </si>
+  <si>
+    <t>OIPJ840121SQ5</t>
+  </si>
+  <si>
+    <t>0317659</t>
+  </si>
+  <si>
+    <t>PEREZ ORTIZ JOSEFA</t>
+  </si>
+  <si>
+    <t>HEVC860620TQ6</t>
+  </si>
+  <si>
+    <t>0318717</t>
+  </si>
+  <si>
+    <t>VELASCO HERNANDEZ CARMEN DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>MEDICO ESPECIALISTA HOSPITAL</t>
+  </si>
+  <si>
+    <t>M11001</t>
+  </si>
+  <si>
+    <t>GARN860511TI4</t>
+  </si>
+  <si>
+    <t>0318827</t>
+  </si>
+  <si>
+    <t>RUIZ GARCIA NALLELY GUADALUPE</t>
+  </si>
+  <si>
+    <t>LOSE810228GFA</t>
+  </si>
+  <si>
+    <t>0317250</t>
+  </si>
+  <si>
+    <t>SANTIAGO LOPEZ EZEQUIEL</t>
+  </si>
+  <si>
+    <t>LOHA930402EKA</t>
+  </si>
+  <si>
+    <t>0317334</t>
+  </si>
+  <si>
+    <t>HERNANDEZ LOPEZ ADAN</t>
+  </si>
+  <si>
+    <t>GOMD8409067E0</t>
+  </si>
+  <si>
+    <t>0316048</t>
+  </si>
+  <si>
+    <t>MORALES GORDILLO DENICE DEL CARMEN</t>
+  </si>
+  <si>
+    <t>COCINERO</t>
+  </si>
+  <si>
+    <t>M12020</t>
+  </si>
+  <si>
+    <t>CICM870316AF9</t>
+  </si>
+  <si>
+    <t>0316106</t>
+  </si>
+  <si>
+    <t>CABRERA CIFUENTES MONICA YAZMIN</t>
+  </si>
+  <si>
+    <t>MOGD910806Q26</t>
+  </si>
+  <si>
+    <t>0317136</t>
+  </si>
+  <si>
+    <t>GUILLEN MORENO DEYVI ELIZABETH</t>
+  </si>
+  <si>
+    <t>SOGF841027PX0</t>
+  </si>
+  <si>
+    <t>0318275</t>
+  </si>
+  <si>
+    <t>GOMEZ SOLIS FLORIDALBA</t>
+  </si>
+  <si>
+    <t>AAMG881028FB9</t>
+  </si>
+  <si>
+    <t>0316452</t>
+  </si>
+  <si>
+    <t>MORALES ALFARO GABRIELA DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>FOAL860927V50</t>
+  </si>
+  <si>
+    <t>0319420</t>
+  </si>
+  <si>
+    <t>AGUILAR FLORES JOSE LUIS</t>
+  </si>
+  <si>
+    <t>MEDICO GENERAL</t>
+  </si>
+  <si>
+    <t>M11002</t>
+  </si>
+  <si>
+    <t>MALG920304GI0</t>
+  </si>
+  <si>
+    <t>0317109</t>
+  </si>
+  <si>
+    <t>LOPEZ MAZARIEGOS GABRIELA</t>
+  </si>
+  <si>
+    <t>RUAM8805318Y8</t>
+  </si>
+  <si>
+    <t>0317072</t>
+  </si>
+  <si>
+    <t>AGUILAR RUIZ MAGDA KARINA</t>
+  </si>
+  <si>
+    <t>BACG821015TI2</t>
+  </si>
+  <si>
+    <t>0316562</t>
+  </si>
+  <si>
+    <t>CARRILLO BARRIOS GADI ESVEY</t>
+  </si>
+  <si>
+    <t>HEAC851019UB8</t>
+  </si>
+  <si>
+    <t>0316590</t>
+  </si>
+  <si>
+    <t>DE ARCIA HERNANDEZ MARIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>MODC860506KUA</t>
+  </si>
+  <si>
+    <t>0320153</t>
+  </si>
+  <si>
+    <t>DIAZ MORALES CHRISTIAN SOLEDAD</t>
+  </si>
+  <si>
+    <t>QUIMICO CLINICO</t>
+  </si>
+  <si>
+    <t>M12008</t>
+  </si>
+  <si>
+    <t>MACY860419PE9</t>
+  </si>
+  <si>
+    <t>0317106</t>
+  </si>
+  <si>
+    <t>CASTILLO MARTINEZ YOELI VERENICE</t>
+  </si>
+  <si>
+    <t>GUHA910903HF8</t>
+  </si>
+  <si>
+    <t>0317839</t>
+  </si>
+  <si>
+    <t>HERNANDEZ GUILLEN ALICIA IVONNE</t>
+  </si>
+  <si>
+    <t>FOMS9101317C2</t>
+  </si>
+  <si>
+    <t>0317317</t>
+  </si>
+  <si>
+    <t>MARTINEZ FLORES SONIA DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>ROLG820219K33</t>
+  </si>
+  <si>
+    <t>0317382</t>
+  </si>
+  <si>
+    <t>LOPEZ ROSAS GUADALUPE</t>
+  </si>
+  <si>
+    <t>CAMI921119GH4</t>
+  </si>
+  <si>
+    <t>0316099</t>
+  </si>
+  <si>
+    <t>MORALES CALVO IRIS ROXANA</t>
+  </si>
+  <si>
+    <t>EILM891127TE4</t>
+  </si>
+  <si>
+    <t>0317938</t>
+  </si>
+  <si>
+    <t>LOPEZ ESPINOZA MARIFLOR</t>
+  </si>
+  <si>
+    <t>VAAC850123B58</t>
+  </si>
+  <si>
+    <t>0317622</t>
+  </si>
+  <si>
+    <t>AGUILAR VAZQUEZ CARINA</t>
+  </si>
+  <si>
+    <t>GUMC811122PK6</t>
+  </si>
+  <si>
+    <t>0317908</t>
+  </si>
+  <si>
+    <t>MORALES GUTIERREZ CECILIA</t>
+  </si>
+  <si>
+    <t>NAPJ870603MA9</t>
+  </si>
+  <si>
+    <t>0320383</t>
+  </si>
+  <si>
+    <t>PEREZ NAJERA JOSE</t>
+  </si>
+  <si>
+    <t>TECNICO RADIOLOGO</t>
+  </si>
+  <si>
+    <t>M12014</t>
+  </si>
+  <si>
+    <t>TOTE870404JB1</t>
+  </si>
+  <si>
+    <t>0317658</t>
+  </si>
+  <si>
+    <t>TOMAS TOMAS EULALIA ROBINA</t>
+  </si>
+  <si>
+    <t>BAGB8411206J5</t>
+  </si>
+  <si>
+    <t>0316567</t>
+  </si>
+  <si>
+    <t>GONZALEZ BARTOLOME BIANCA VANESSA</t>
+  </si>
+  <si>
+    <t>PEGL920114T21</t>
+  </si>
+  <si>
+    <t>0320131</t>
+  </si>
+  <si>
+    <t>GORDILLO PENAGOS LAURA NALLELY</t>
+  </si>
+  <si>
+    <t>HERO800403FHA</t>
+  </si>
+  <si>
+    <t>0318669</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ HERNANDEZ OFELIA DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>MALR890830C30</t>
+  </si>
+  <si>
+    <t>0317112</t>
+  </si>
+  <si>
+    <t>LOPEZ MALDONADO MARIA DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>MAML8106089U5</t>
+  </si>
+  <si>
+    <t>0319209</t>
+  </si>
+  <si>
+    <t>MAYORGA MATADAMAS LUIS ALBERTO</t>
+  </si>
+  <si>
+    <t>VEVV770530AZ7</t>
+  </si>
+  <si>
+    <t>0317539</t>
+  </si>
+  <si>
+    <t>VAZQUEZ VELASCO VELLA NEY</t>
+  </si>
+  <si>
+    <t>GOAL8903113B4</t>
+  </si>
+  <si>
+    <t>0318043</t>
+  </si>
+  <si>
+    <t>ARRAZATE GORDILLO LORENA DEL ROCIO</t>
+  </si>
+  <si>
+    <t>ROHM890516T19</t>
+  </si>
+  <si>
+    <t>0320492</t>
+  </si>
+  <si>
+    <t>HIDALGO RODRIGUEZ MAYELA GUADALUPE</t>
+  </si>
+  <si>
+    <t>TRABAJADORA SOCIAL</t>
+  </si>
+  <si>
+    <t>M12021</t>
+  </si>
+  <si>
+    <t>AARR890827QS3</t>
+  </si>
+  <si>
+    <t>0316493</t>
+  </si>
+  <si>
+    <t>RUIZ ANZA RODULFO</t>
+  </si>
+  <si>
+    <t>DOGA820313SM2</t>
+  </si>
+  <si>
+    <t>0316084</t>
+  </si>
+  <si>
+    <t>GOMEZ DOMINGUEZ ANTONIO</t>
+  </si>
+  <si>
+    <t>HESA8001202A2</t>
+  </si>
+  <si>
+    <t>0318409</t>
+  </si>
+  <si>
+    <t>SANDOVAL HERNANDEZ JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>AUHR910426U60</t>
+  </si>
+  <si>
+    <t>0316388</t>
+  </si>
+  <si>
+    <t>HERNANDEZ AGUILAR ROBERTO</t>
+  </si>
+  <si>
+    <t>AAPJ860506LP8</t>
+  </si>
+  <si>
+    <t>0319897</t>
+  </si>
+  <si>
+    <t>PEREZ ABADIA MARIA JUDITH</t>
+  </si>
+  <si>
+    <t>NUTRICIONISTA DIETISTA</t>
+  </si>
+  <si>
+    <t>M12010</t>
+  </si>
+  <si>
+    <t>MACA880305EL6</t>
+  </si>
+  <si>
+    <t>0317104</t>
+  </si>
+  <si>
+    <t>CASTILLO MARTINEZ ANA SILVIA</t>
+  </si>
+  <si>
+    <t>COMB861203UP7</t>
+  </si>
+  <si>
+    <t>0318918</t>
+  </si>
+  <si>
+    <t>MOLINA COELLO BELEN CANDELARIA</t>
+  </si>
+  <si>
+    <t>CUSA900505HR3</t>
+  </si>
+  <si>
+    <t>0320317</t>
+  </si>
+  <si>
+    <t>SANGUINO DE LA CRUZ ARNULFO</t>
+  </si>
+  <si>
+    <t>MOHV8912272B9</t>
+  </si>
+  <si>
+    <t>0316809</t>
+  </si>
+  <si>
+    <t>HERRERA MORALES VERONICA GUADALUPE</t>
+  </si>
+  <si>
+    <t>RALP850623JF0</t>
+  </si>
+  <si>
+    <t>0319312</t>
+  </si>
+  <si>
+    <t>LOPEZ RAMOS PARIS ALBERTO</t>
+  </si>
+  <si>
+    <t>LOAL890525L22</t>
+  </si>
+  <si>
+    <t>0318572</t>
+  </si>
+  <si>
+    <t>AGUILAR LOPEZ LAURA GUADALUPE</t>
+  </si>
+  <si>
+    <t>ENFERMERA ESPECIALISTA</t>
+  </si>
+  <si>
+    <t>M12001</t>
+  </si>
+  <si>
+    <t>RAHB891219951</t>
+  </si>
+  <si>
+    <t>0317370</t>
+  </si>
+  <si>
+    <t>HERNANDEZ RAMIREZ BEATRIZ ADRIANA</t>
+  </si>
+  <si>
+    <t>LOLT910506562</t>
+  </si>
+  <si>
+    <t>0317240</t>
+  </si>
+  <si>
+    <t>LOPEZ LOPEZ TREISY MARIELA</t>
+  </si>
+  <si>
+    <t>AUAB850511JZA</t>
+  </si>
+  <si>
+    <t>0319899</t>
+  </si>
+  <si>
+    <t>ARREOLA AHUMADA BERENICE</t>
+  </si>
+  <si>
+    <t>GOMY830809953</t>
+  </si>
+  <si>
+    <t>0319947</t>
+  </si>
+  <si>
+    <t>MORALES GONZALEZ YESENIA MARGARITA</t>
+  </si>
+  <si>
+    <t>GOPS910801HP3</t>
+  </si>
+  <si>
+    <t>0318001</t>
+  </si>
+  <si>
+    <t>PEREZ GOMEZ SANDRA YANETH</t>
+  </si>
+  <si>
+    <t>CULP921220IT6</t>
+  </si>
+  <si>
+    <t>0316117</t>
+  </si>
+  <si>
+    <t>LOPEZ CRUZ PAOLA GUADALUPE</t>
+  </si>
+  <si>
+    <t>AUHT8901108H8</t>
+  </si>
+  <si>
+    <t>0316391</t>
+  </si>
+  <si>
+    <t>HERNANDEZ AGUILAR JOSE TRINIDAD</t>
+  </si>
+  <si>
+    <t>CAGL890128QE5</t>
+  </si>
+  <si>
+    <t>0316093</t>
+  </si>
+  <si>
+    <t>GARCIA CALVO LUCERO</t>
+  </si>
+  <si>
+    <t>ZAVY890620EB7</t>
+  </si>
+  <si>
+    <t>0317652</t>
+  </si>
+  <si>
+    <t>VAZQUEZ ZAMORANO YESENIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>ZAPG861230AF6</t>
+  </si>
+  <si>
+    <t>0320188</t>
+  </si>
+  <si>
+    <t>PEREZ ZAMBRANO GUSTAVO ARMANDO</t>
+  </si>
+  <si>
+    <t>GATN940213DM9</t>
+  </si>
+  <si>
+    <t>0317761</t>
+  </si>
+  <si>
+    <t>TOVAR GARCIA NELLY VALENTINA</t>
+  </si>
+  <si>
+    <t>VEML920926KM6</t>
+  </si>
+  <si>
+    <t>0317552</t>
+  </si>
+  <si>
+    <t>MENDEZ VERDUGO LIZBETH GUADALUPE</t>
+  </si>
+  <si>
+    <t>EIME900522P11</t>
+  </si>
+  <si>
+    <t>0317929</t>
+  </si>
+  <si>
+    <t>MALDONADO ESPINOSA MARIA ESTHER</t>
+  </si>
+  <si>
+    <t>MARI9112061Y1</t>
+  </si>
+  <si>
+    <t>0316738</t>
+  </si>
+  <si>
+    <t>RODAS MARTINEZ IRIS FABIOLA</t>
+  </si>
+  <si>
+    <t>EADY900927TN7</t>
+  </si>
+  <si>
+    <t>0317950</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ ESTRADA YESSICA LIZBETH</t>
+  </si>
+  <si>
+    <t>EIVD910718520</t>
+  </si>
+  <si>
+    <t>0320301</t>
+  </si>
+  <si>
+    <t>VIVES ESPINOSA DAFFNE ANAID</t>
+  </si>
+  <si>
+    <t>TECNICO LABORATORISTA</t>
+  </si>
+  <si>
+    <t>M12013</t>
+  </si>
+  <si>
+    <t>CAFD861007NS5</t>
+  </si>
+  <si>
+    <t>0319467</t>
+  </si>
+  <si>
+    <t>FIGUEROA CHAVEZ DAMARIS YOHAIRA</t>
+  </si>
+  <si>
+    <t>VELO840829KJ3</t>
+  </si>
+  <si>
+    <t>0317549</t>
+  </si>
+  <si>
+    <t>LOPEZ VENTURA OLGA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>VAZJ9702128V3</t>
+  </si>
+  <si>
+    <t>0317530</t>
+  </si>
+  <si>
+    <t>ZAMORANO VAZQUEZ JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>LOAL850121RL4</t>
+  </si>
+  <si>
+    <t>0315853</t>
+  </si>
+  <si>
+    <t>ALVARADO LOPEZ LORENA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE ENFERMERIA</t>
+  </si>
+  <si>
+    <t>M12003</t>
+  </si>
+  <si>
+    <t>MOMP871118IZ5</t>
+  </si>
+  <si>
+    <t>0316803</t>
+  </si>
+  <si>
+    <t>MENESES MONTELONGO PERLA PATRICIA</t>
+  </si>
+  <si>
+    <t>GOAY9306137I5</t>
+  </si>
+  <si>
+    <t>0318384</t>
+  </si>
+  <si>
+    <t>AGUILAR GONZALEZ YULIANA ANTONIETA</t>
+  </si>
+  <si>
+    <t>MOAS870512HG3</t>
+  </si>
+  <si>
+    <t>0320152</t>
+  </si>
+  <si>
+    <t>ABADIA MONJARAS SANDRA NAYELI</t>
+  </si>
+  <si>
+    <t>MASA910723KC5</t>
+  </si>
+  <si>
+    <t>0317115</t>
+  </si>
+  <si>
+    <t>SANTIAGO MALDONADO ANA KARINA</t>
+  </si>
+  <si>
+    <t>VIPP9102232W2</t>
+  </si>
+  <si>
+    <t>0318809</t>
+  </si>
+  <si>
+    <t>PORTILLO VILLATORO PAOLA GUADALUPE</t>
+  </si>
+  <si>
+    <t>LODC860503DS5</t>
+  </si>
+  <si>
+    <t>0317265</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ LOPEZ CRUSY YERALDIN</t>
+  </si>
+  <si>
+    <t>DIVD8301206C2</t>
+  </si>
+  <si>
+    <t>0320079</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ DIAZ DIANA LIZETH</t>
+  </si>
+  <si>
+    <t>RELI930226AL0</t>
+  </si>
+  <si>
+    <t>0316079</t>
+  </si>
+  <si>
+    <t>LARA REYES ILSE ABRIL</t>
+  </si>
+  <si>
+    <t>AUHA860416U95</t>
+  </si>
+  <si>
+    <t>0319898</t>
+  </si>
+  <si>
+    <t>HERNANDEZ AGUILAR AURORA GUADALUPE</t>
+  </si>
+  <si>
+    <t>LEVB821209182</t>
+  </si>
+  <si>
+    <t>0317326</t>
+  </si>
+  <si>
+    <t>VENTURA LEON BELLANI</t>
+  </si>
+  <si>
+    <t>NAPA950427E12</t>
+  </si>
+  <si>
+    <t>0318091</t>
+  </si>
+  <si>
+    <t>PEREZ NAVARRO ANA GLORIA</t>
+  </si>
+  <si>
+    <t>GOSD920622LX4</t>
+  </si>
+  <si>
+    <t>0317798</t>
+  </si>
+  <si>
+    <t>SANTIAGO GONZALEZ DAMARIS YULIAN</t>
+  </si>
+  <si>
+    <t>MARG910221US4</t>
+  </si>
+  <si>
+    <t>0316728</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ MARROQUIN GUILIANEY</t>
+  </si>
+  <si>
+    <t>COAP861030NU1</t>
+  </si>
+  <si>
+    <t>0318954</t>
+  </si>
+  <si>
+    <t>AGUILAR CORDOVA PAOLA BERENICE</t>
+  </si>
+  <si>
+    <t>DOMK890610DU2</t>
+  </si>
+  <si>
+    <t>0316135</t>
+  </si>
+  <si>
+    <t>MORALES DOMINGUEZ KARINA</t>
+  </si>
+  <si>
+    <t>MOAS890130JM2</t>
+  </si>
+  <si>
+    <t>0318501</t>
+  </si>
+  <si>
+    <t>ARMAS MORALES SERGIO MARTIN</t>
+  </si>
+  <si>
+    <t>MOLR880616IW1</t>
+  </si>
+  <si>
+    <t>0317141</t>
+  </si>
+  <si>
+    <t>LUNA MORALES ROXANA PATRICIA</t>
+  </si>
+  <si>
+    <t>VIHF890523RJ0</t>
+  </si>
+  <si>
+    <t>0317566</t>
+  </si>
+  <si>
+    <t>HERNANDEZ VILLATORO FABIOLA ALEJANDRA</t>
+  </si>
+  <si>
+    <t>AUPC840925UY6</t>
+  </si>
+  <si>
+    <t>0319058</t>
+  </si>
+  <si>
+    <t>PINTO AGUILAR CAROLINA</t>
+  </si>
+  <si>
+    <t>ZUSA8704199P9</t>
+  </si>
+  <si>
+    <t>0317593</t>
+  </si>
+  <si>
+    <t>SANCHEZ ZUÑIGA ADRIANA JACQUELINE</t>
+  </si>
+  <si>
+    <t>VAHC831004U1A</t>
+  </si>
+  <si>
+    <t>0317627</t>
+  </si>
+  <si>
+    <t>HERNANDEZ VAZQUEZ CARMELA</t>
+  </si>
+  <si>
+    <t>ROHC891104PL1</t>
+  </si>
+  <si>
+    <t>0319453</t>
+  </si>
+  <si>
+    <t>HERRERA ROMAN CARLOS LENIN</t>
+  </si>
+  <si>
+    <t>MEGM9009268C0</t>
+  </si>
+  <si>
+    <t>0316771</t>
+  </si>
+  <si>
+    <t>GARCIA MENDEZ MARICELA</t>
+  </si>
+  <si>
+    <t>CAMJ9112231W6</t>
+  </si>
+  <si>
+    <t>0318662</t>
+  </si>
+  <si>
+    <t>MORALES CABRERA JANETH ESELY</t>
+  </si>
+  <si>
+    <t>REPI870227RH4</t>
+  </si>
+  <si>
+    <t>0320146</t>
+  </si>
+  <si>
+    <t>PEREZ REZA ISIS GUADALUPE</t>
+  </si>
+  <si>
+    <t>TUBK821108VC6</t>
+  </si>
+  <si>
+    <t>0318338</t>
+  </si>
+  <si>
+    <t>BERMUDEZ TRUJILLO KARINA LIZETH</t>
+  </si>
+  <si>
+    <t>RAGG890406IP4</t>
+  </si>
+  <si>
+    <t>0317391</t>
+  </si>
+  <si>
+    <t>GORDILLO RAMIREZ GRISELDA CAROLINA</t>
+  </si>
+  <si>
+    <t>GAAD85093076A</t>
+  </si>
+  <si>
+    <t>0317867</t>
+  </si>
+  <si>
+    <t>ARGUELLO GARCIA DORA</t>
+  </si>
+  <si>
+    <t>MOCA880818NF6</t>
+  </si>
+  <si>
+    <t>0317133</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ MONTESINOS ANGELICA</t>
+  </si>
+  <si>
+    <t>GUSC8605071A1</t>
+  </si>
+  <si>
+    <t>0317801</t>
+  </si>
+  <si>
+    <t>SANCHEZ GUZMAN CECILIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>NILO840817GDA</t>
+  </si>
+  <si>
+    <t>0318865</t>
+  </si>
+  <si>
+    <t>LOPEZ NIETO OSCAR FERNANDO</t>
+  </si>
+  <si>
+    <t>HELR900727V17</t>
+  </si>
+  <si>
+    <t>0318403</t>
+  </si>
+  <si>
+    <t>LOPEZ HERNANDEZ RAFAEL</t>
+  </si>
+  <si>
+    <t>MALT8905294T3</t>
+  </si>
+  <si>
+    <t>0316745</t>
+  </si>
+  <si>
+    <t>LOPEZ MARTINEZ TERESA DE JESUS</t>
+  </si>
+  <si>
+    <t>VICL821127JR6</t>
+  </si>
+  <si>
+    <t>0319534</t>
+  </si>
+  <si>
+    <t>CITALAN VICTORIO LORIE MARILYN</t>
+  </si>
+  <si>
+    <t>JIOL8909287F4</t>
+  </si>
+  <si>
+    <t>0318670</t>
+  </si>
+  <si>
+    <t>ORTEGA JIMENEZ LUIS MAURICIO</t>
+  </si>
+  <si>
+    <t>LOHL881120C79</t>
+  </si>
+  <si>
+    <t>0317271</t>
+  </si>
+  <si>
+    <t>HERNANDEZ LOPEZ LUCERO</t>
+  </si>
+  <si>
+    <t>ROGA781030JW9</t>
+  </si>
+  <si>
+    <t>0315832</t>
+  </si>
+  <si>
+    <t>GOMEZ RODAS MARIA DE LOS ANGELES</t>
+  </si>
+  <si>
+    <t>COPA930123UC8</t>
+  </si>
+  <si>
+    <t>0318440</t>
+  </si>
+  <si>
+    <t>PEREZ CORDERO ANA ELIZABETH</t>
+  </si>
+  <si>
+    <t>GUMJ860103TZ8</t>
+  </si>
+  <si>
+    <t>0317843</t>
+  </si>
+  <si>
+    <t>MAZARIEGOS GUTIERREZ JUANA ISABEL</t>
+  </si>
+  <si>
+    <t>AUGN9110298H3</t>
+  </si>
+  <si>
+    <t>0316383</t>
+  </si>
+  <si>
+    <t>GARCIA AGUILAR NERY ENRIQUE</t>
+  </si>
+  <si>
+    <t>VASL8803309V6</t>
+  </si>
+  <si>
+    <t>0318352</t>
+  </si>
+  <si>
+    <t>SANTIAGO VAZQUEZ MARIA LUCERO</t>
+  </si>
+  <si>
+    <t>GUCF891215J20</t>
+  </si>
+  <si>
+    <t>0320206</t>
+  </si>
+  <si>
+    <t>CABALLERO GUILLEN JOSE FERNANDO</t>
+  </si>
+  <si>
+    <t>LOAM791111988</t>
+  </si>
+  <si>
+    <t>0316005</t>
+  </si>
+  <si>
+    <t>AGUILAR LOPEZ MARTHA ELENA</t>
+  </si>
+  <si>
+    <t>SAJI880808U39</t>
+  </si>
+  <si>
+    <t>0318237</t>
+  </si>
+  <si>
+    <t>JIMENEZ SANTIZ ILEANA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>SOTG820404747</t>
+  </si>
+  <si>
+    <t>0318272</t>
+  </si>
+  <si>
+    <t>TOVILLA SOLANO GLORIA ELENA</t>
+  </si>
+  <si>
+    <t>NALC921026IM6</t>
+  </si>
+  <si>
+    <t>0318080</t>
+  </si>
+  <si>
+    <t>LOPEZ NAJERA CLAUDIA ELIZABETH</t>
+  </si>
+  <si>
+    <t>AUVM860612LI0</t>
+  </si>
+  <si>
+    <t>0320419</t>
+  </si>
+  <si>
+    <t>VAZQUEZ AGUILAR MARISELA</t>
+  </si>
+  <si>
+    <t>AUAD900905AY4</t>
+  </si>
+  <si>
+    <t>0319901</t>
+  </si>
+  <si>
+    <t>AGUILAR ARGUELLO DOLORES ALEJANDRA</t>
+  </si>
+  <si>
+    <t>LOHA881020EK5</t>
+  </si>
+  <si>
+    <t>0319398</t>
+  </si>
+  <si>
+    <t>HERNANDEZ LOPEZ ALEJANDRA NINETH</t>
+  </si>
+  <si>
+    <t>LOPP900629ET2</t>
+  </si>
+  <si>
+    <t>0316601</t>
+  </si>
+  <si>
+    <t>PEREZ LOPEZ PATRICIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>SOGV920905ID6</t>
+  </si>
+  <si>
+    <t>0318292</t>
+  </si>
+  <si>
+    <t>GUILLEN SOTO VISLETH</t>
+  </si>
+  <si>
+    <t>VAAF870924JT1</t>
+  </si>
+  <si>
+    <t>0320508</t>
+  </si>
+  <si>
+    <t>AGUILAR VAZQUEZ FRANCISCO FABIAN</t>
+  </si>
+  <si>
+    <t>AOMA820421JX0</t>
+  </si>
+  <si>
+    <t>0319068</t>
+  </si>
+  <si>
+    <t>MORENO ALBORES ALBA NOEMI</t>
+  </si>
+  <si>
+    <t>MOTG8311269U1</t>
+  </si>
+  <si>
+    <t>0319363</t>
+  </si>
+  <si>
+    <t>TOALA MOLANO GABRIELA YAZMIN</t>
+  </si>
+  <si>
+    <t>GOMA9005306C5</t>
+  </si>
+  <si>
+    <t>0318042</t>
+  </si>
+  <si>
+    <t>MORALES GORDILLO ALMENDRA KARINA</t>
+  </si>
+  <si>
+    <t>MOMS9103137K6</t>
+  </si>
+  <si>
+    <t>0318425</t>
+  </si>
+  <si>
+    <t>MORALES MONJARAZ SUSANA ELIZABETH</t>
+  </si>
+  <si>
+    <t>VEBL880224G4A</t>
+  </si>
+  <si>
+    <t>0317641</t>
+  </si>
+  <si>
+    <t>BALLINAS VENTURA LAURA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>GOLJ9008017N4</t>
+  </si>
+  <si>
+    <t>0319637</t>
+  </si>
+  <si>
+    <t>LOPEZ GORDILLO JULIO ALEJANDRO</t>
+  </si>
+  <si>
+    <t>GAMC890620M51</t>
+  </si>
+  <si>
+    <t>0317804</t>
+  </si>
+  <si>
+    <t>MORALES GARCIA CLAUDIA ELIZABETH</t>
+  </si>
+  <si>
+    <t>EIGN910101TB8</t>
+  </si>
+  <si>
+    <t>0318383</t>
+  </si>
+  <si>
+    <t>GARCIA ESPINOSA NANCI ELIZABETH</t>
+  </si>
+  <si>
+    <t>ROMR910205Q92</t>
+  </si>
+  <si>
+    <t>0317396</t>
+  </si>
+  <si>
+    <t>MORENO RODRIGUEZ MARIA DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>AUPV8512074M8</t>
+  </si>
+  <si>
+    <t>0320266</t>
+  </si>
+  <si>
+    <t>PULIDO ARGUELLO VIRGINIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>AOMY831206AS5</t>
+  </si>
+  <si>
+    <t>0319077</t>
+  </si>
+  <si>
+    <t>MALDONADO ALFONZO YANET DEL ROCIO</t>
+  </si>
+  <si>
+    <t>TUAY910116HE5</t>
+  </si>
+  <si>
+    <t>0317597</t>
+  </si>
+  <si>
+    <t>AGUILAR TRUJILLO YESSICA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>GOGG890227M4A</t>
+  </si>
+  <si>
+    <t>0317772</t>
+  </si>
+  <si>
+    <t>GOMEZ GOMEZ GABRIELA</t>
+  </si>
+  <si>
+    <t>PUML900804AX3</t>
+  </si>
+  <si>
+    <t>0317010</t>
+  </si>
+  <si>
+    <t>MONJARAS PULIDO LESVIA ISABEL</t>
+  </si>
+  <si>
+    <t>MEAJ9012135ZA</t>
+  </si>
+  <si>
+    <t>0320449</t>
+  </si>
+  <si>
+    <t>AGUILAR MENDEZ JENNI JOCABETH</t>
+  </si>
+  <si>
+    <t>JUCV820911LU6</t>
+  </si>
+  <si>
+    <t>0320404</t>
+  </si>
+  <si>
+    <t>CRUZ JUAREZ VICENTE</t>
+  </si>
+  <si>
+    <t>HEVC871025FE1</t>
+  </si>
+  <si>
+    <t>0316147</t>
+  </si>
+  <si>
+    <t>VAZQUEZ HERNANDEZ CLARIVEL</t>
+  </si>
+  <si>
+    <t>HEVS840312LK7</t>
+  </si>
+  <si>
+    <t>0320255</t>
+  </si>
+  <si>
+    <t>VAZQUEZ HERNANDEZ SERGIO FERMIN</t>
+  </si>
+  <si>
+    <t>AULD900731945</t>
+  </si>
+  <si>
+    <t>0316392</t>
+  </si>
+  <si>
+    <t>LOPEZ AGUILAR DANIEL DE JESUS</t>
+  </si>
+  <si>
+    <t>ROPL860327H69</t>
+  </si>
+  <si>
+    <t>0319321</t>
+  </si>
+  <si>
+    <t>PEREZ RODRIGUEZ LESLIE YURIDIA</t>
+  </si>
+  <si>
+    <t>AARE870705D75</t>
+  </si>
+  <si>
+    <t>0316440</t>
+  </si>
+  <si>
+    <t>RINCON ALCAZAR ERIKA JUDITH</t>
+  </si>
+  <si>
+    <t>MOEN880801H60</t>
+  </si>
+  <si>
+    <t>0317134</t>
+  </si>
+  <si>
+    <t>ESPINOSA MORENO NERY DEL CARMEN</t>
+  </si>
+  <si>
+    <t>SIAR851213BA4</t>
+  </si>
+  <si>
+    <t>0319805</t>
+  </si>
+  <si>
+    <t>ALFARO SILVA RUTH MAYKELIN</t>
   </si>
 </sst>
 </file>
@@ -397,7 +1834,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="I1" sqref="I1"/>
@@ -432,6 +1869,4385 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" t="s">
+        <v>131</v>
+      </c>
+      <c r="H37" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" t="s">
+        <v>135</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F42" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" t="s">
+        <v>150</v>
+      </c>
+      <c r="G43" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" t="s">
+        <v>153</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45" t="s">
+        <v>156</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46" t="s">
+        <v>160</v>
+      </c>
+      <c r="H46" t="s">
+        <v>161</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" t="s">
+        <v>163</v>
+      </c>
+      <c r="F47" t="s">
+        <v>164</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" t="s">
+        <v>166</v>
+      </c>
+      <c r="F48" t="s">
+        <v>167</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" t="s">
+        <v>170</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" t="s">
+        <v>172</v>
+      </c>
+      <c r="F50" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>33</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" t="s">
+        <v>176</v>
+      </c>
+      <c r="G51" t="s">
+        <v>177</v>
+      </c>
+      <c r="H51" t="s">
+        <v>178</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52" t="s">
+        <v>180</v>
+      </c>
+      <c r="F52" t="s">
+        <v>181</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>33</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>182</v>
+      </c>
+      <c r="E53" t="s">
+        <v>183</v>
+      </c>
+      <c r="F53" t="s">
+        <v>184</v>
+      </c>
+      <c r="G53" t="s">
+        <v>85</v>
+      </c>
+      <c r="H53" t="s">
+        <v>86</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>33</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>185</v>
+      </c>
+      <c r="E54" t="s">
+        <v>186</v>
+      </c>
+      <c r="F54" t="s">
+        <v>187</v>
+      </c>
+      <c r="G54" t="s">
+        <v>131</v>
+      </c>
+      <c r="H54" t="s">
+        <v>132</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>188</v>
+      </c>
+      <c r="E55" t="s">
+        <v>189</v>
+      </c>
+      <c r="F55" t="s">
+        <v>190</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>33</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>191</v>
+      </c>
+      <c r="E56" t="s">
+        <v>192</v>
+      </c>
+      <c r="F56" t="s">
+        <v>193</v>
+      </c>
+      <c r="G56" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" t="s">
+        <v>86</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>33</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" t="s">
+        <v>195</v>
+      </c>
+      <c r="F57" t="s">
+        <v>196</v>
+      </c>
+      <c r="G57" t="s">
+        <v>197</v>
+      </c>
+      <c r="H57" t="s">
+        <v>198</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>199</v>
+      </c>
+      <c r="E58" t="s">
+        <v>200</v>
+      </c>
+      <c r="F58" t="s">
+        <v>201</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>202</v>
+      </c>
+      <c r="E59" t="s">
+        <v>203</v>
+      </c>
+      <c r="F59" t="s">
+        <v>204</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>33</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>205</v>
+      </c>
+      <c r="E60" t="s">
+        <v>206</v>
+      </c>
+      <c r="F60" t="s">
+        <v>207</v>
+      </c>
+      <c r="G60" t="s">
+        <v>177</v>
+      </c>
+      <c r="H60" t="s">
+        <v>178</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>208</v>
+      </c>
+      <c r="E61" t="s">
+        <v>209</v>
+      </c>
+      <c r="F61" t="s">
+        <v>210</v>
+      </c>
+      <c r="G61" t="s">
+        <v>177</v>
+      </c>
+      <c r="H61" t="s">
+        <v>178</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>33</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>211</v>
+      </c>
+      <c r="E62" t="s">
+        <v>212</v>
+      </c>
+      <c r="F62" t="s">
+        <v>213</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>33</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>214</v>
+      </c>
+      <c r="E63" t="s">
+        <v>215</v>
+      </c>
+      <c r="F63" t="s">
+        <v>216</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>33</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>217</v>
+      </c>
+      <c r="E64" t="s">
+        <v>218</v>
+      </c>
+      <c r="F64" t="s">
+        <v>219</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65">
+        <v>33</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>220</v>
+      </c>
+      <c r="E65" t="s">
+        <v>221</v>
+      </c>
+      <c r="F65" t="s">
+        <v>222</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66">
+        <v>33</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>223</v>
+      </c>
+      <c r="E66" t="s">
+        <v>224</v>
+      </c>
+      <c r="F66" t="s">
+        <v>225</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>33</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>226</v>
+      </c>
+      <c r="E67" t="s">
+        <v>227</v>
+      </c>
+      <c r="F67" t="s">
+        <v>228</v>
+      </c>
+      <c r="G67" t="s">
+        <v>102</v>
+      </c>
+      <c r="H67" t="s">
+        <v>103</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>33</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>229</v>
+      </c>
+      <c r="E68" t="s">
+        <v>230</v>
+      </c>
+      <c r="F68" t="s">
+        <v>231</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>33</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>232</v>
+      </c>
+      <c r="E69" t="s">
+        <v>233</v>
+      </c>
+      <c r="F69" t="s">
+        <v>234</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>33</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>235</v>
+      </c>
+      <c r="E70" t="s">
+        <v>236</v>
+      </c>
+      <c r="F70" t="s">
+        <v>237</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>33</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>238</v>
+      </c>
+      <c r="E71" t="s">
+        <v>239</v>
+      </c>
+      <c r="F71" t="s">
+        <v>240</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>33</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>241</v>
+      </c>
+      <c r="E72" t="s">
+        <v>242</v>
+      </c>
+      <c r="F72" t="s">
+        <v>243</v>
+      </c>
+      <c r="G72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>33</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>244</v>
+      </c>
+      <c r="E73" t="s">
+        <v>245</v>
+      </c>
+      <c r="F73" t="s">
+        <v>246</v>
+      </c>
+      <c r="G73" t="s">
+        <v>247</v>
+      </c>
+      <c r="H73" t="s">
+        <v>248</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <v>33</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>249</v>
+      </c>
+      <c r="E74" t="s">
+        <v>250</v>
+      </c>
+      <c r="F74" t="s">
+        <v>251</v>
+      </c>
+      <c r="G74" t="s">
+        <v>85</v>
+      </c>
+      <c r="H74" t="s">
+        <v>86</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>33</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>252</v>
+      </c>
+      <c r="E75" t="s">
+        <v>253</v>
+      </c>
+      <c r="F75" t="s">
+        <v>254</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76">
+        <v>33</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>255</v>
+      </c>
+      <c r="E76" t="s">
+        <v>256</v>
+      </c>
+      <c r="F76" t="s">
+        <v>257</v>
+      </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>33</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>258</v>
+      </c>
+      <c r="E77" t="s">
+        <v>259</v>
+      </c>
+      <c r="F77" t="s">
+        <v>260</v>
+      </c>
+      <c r="G77" t="s">
+        <v>261</v>
+      </c>
+      <c r="H77" t="s">
+        <v>262</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78">
+        <v>33</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>263</v>
+      </c>
+      <c r="E78" t="s">
+        <v>264</v>
+      </c>
+      <c r="F78" t="s">
+        <v>265</v>
+      </c>
+      <c r="G78" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79">
+        <v>33</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>266</v>
+      </c>
+      <c r="E79" t="s">
+        <v>267</v>
+      </c>
+      <c r="F79" t="s">
+        <v>268</v>
+      </c>
+      <c r="G79" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80">
+        <v>33</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
+        <v>269</v>
+      </c>
+      <c r="E80" t="s">
+        <v>270</v>
+      </c>
+      <c r="F80" t="s">
+        <v>271</v>
+      </c>
+      <c r="G80" t="s">
+        <v>102</v>
+      </c>
+      <c r="H80" t="s">
+        <v>103</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81">
+        <v>33</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>272</v>
+      </c>
+      <c r="E81" t="s">
+        <v>273</v>
+      </c>
+      <c r="F81" t="s">
+        <v>274</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82">
+        <v>33</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>275</v>
+      </c>
+      <c r="E82" t="s">
+        <v>276</v>
+      </c>
+      <c r="F82" t="s">
+        <v>277</v>
+      </c>
+      <c r="G82" t="s">
+        <v>54</v>
+      </c>
+      <c r="H82" t="s">
+        <v>55</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83">
+        <v>33</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>278</v>
+      </c>
+      <c r="E83" t="s">
+        <v>279</v>
+      </c>
+      <c r="F83" t="s">
+        <v>280</v>
+      </c>
+      <c r="G83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84">
+        <v>33</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" t="s">
+        <v>281</v>
+      </c>
+      <c r="E84" t="s">
+        <v>282</v>
+      </c>
+      <c r="F84" t="s">
+        <v>283</v>
+      </c>
+      <c r="G84" t="s">
+        <v>102</v>
+      </c>
+      <c r="H84" t="s">
+        <v>103</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85">
+        <v>33</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
+        <v>284</v>
+      </c>
+      <c r="E85" t="s">
+        <v>285</v>
+      </c>
+      <c r="F85" t="s">
+        <v>286</v>
+      </c>
+      <c r="G85" t="s">
+        <v>68</v>
+      </c>
+      <c r="H85" t="s">
+        <v>69</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86">
+        <v>33</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>287</v>
+      </c>
+      <c r="E86" t="s">
+        <v>288</v>
+      </c>
+      <c r="F86" t="s">
+        <v>289</v>
+      </c>
+      <c r="G86" t="s">
+        <v>177</v>
+      </c>
+      <c r="H86" t="s">
+        <v>178</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87">
+        <v>33</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>290</v>
+      </c>
+      <c r="E87" t="s">
+        <v>291</v>
+      </c>
+      <c r="F87" t="s">
+        <v>292</v>
+      </c>
+      <c r="G87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88">
+        <v>33</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" t="s">
+        <v>293</v>
+      </c>
+      <c r="E88" t="s">
+        <v>294</v>
+      </c>
+      <c r="F88" t="s">
+        <v>295</v>
+      </c>
+      <c r="G88" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89">
+        <v>33</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>296</v>
+      </c>
+      <c r="E89" t="s">
+        <v>297</v>
+      </c>
+      <c r="F89" t="s">
+        <v>298</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90">
+        <v>33</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>299</v>
+      </c>
+      <c r="E90" t="s">
+        <v>300</v>
+      </c>
+      <c r="F90" t="s">
+        <v>301</v>
+      </c>
+      <c r="G90" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91">
+        <v>33</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>302</v>
+      </c>
+      <c r="E91" t="s">
+        <v>303</v>
+      </c>
+      <c r="F91" t="s">
+        <v>304</v>
+      </c>
+      <c r="G91" t="s">
+        <v>85</v>
+      </c>
+      <c r="H91" t="s">
+        <v>86</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92">
+        <v>33</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" t="s">
+        <v>305</v>
+      </c>
+      <c r="E92" t="s">
+        <v>306</v>
+      </c>
+      <c r="F92" t="s">
+        <v>307</v>
+      </c>
+      <c r="G92" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" t="s">
+        <v>15</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93">
+        <v>33</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s">
+        <v>308</v>
+      </c>
+      <c r="E93" t="s">
+        <v>309</v>
+      </c>
+      <c r="F93" t="s">
+        <v>310</v>
+      </c>
+      <c r="G93" t="s">
+        <v>197</v>
+      </c>
+      <c r="H93" t="s">
+        <v>198</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94">
+        <v>33</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" t="s">
+        <v>311</v>
+      </c>
+      <c r="E94" t="s">
+        <v>312</v>
+      </c>
+      <c r="F94" t="s">
+        <v>313</v>
+      </c>
+      <c r="G94" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95">
+        <v>33</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" t="s">
+        <v>314</v>
+      </c>
+      <c r="E95" t="s">
+        <v>315</v>
+      </c>
+      <c r="F95" t="s">
+        <v>316</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96">
+        <v>33</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" t="s">
+        <v>317</v>
+      </c>
+      <c r="E96" t="s">
+        <v>318</v>
+      </c>
+      <c r="F96" t="s">
+        <v>319</v>
+      </c>
+      <c r="G96" t="s">
+        <v>85</v>
+      </c>
+      <c r="H96" t="s">
+        <v>86</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97">
+        <v>33</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" t="s">
+        <v>320</v>
+      </c>
+      <c r="E97" t="s">
+        <v>321</v>
+      </c>
+      <c r="F97" t="s">
+        <v>322</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98">
+        <v>33</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" t="s">
+        <v>323</v>
+      </c>
+      <c r="E98" t="s">
+        <v>324</v>
+      </c>
+      <c r="F98" t="s">
+        <v>325</v>
+      </c>
+      <c r="G98" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99">
+        <v>33</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>326</v>
+      </c>
+      <c r="E99" t="s">
+        <v>327</v>
+      </c>
+      <c r="F99" t="s">
+        <v>328</v>
+      </c>
+      <c r="G99" t="s">
+        <v>85</v>
+      </c>
+      <c r="H99" t="s">
+        <v>86</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100">
+        <v>33</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" t="s">
+        <v>329</v>
+      </c>
+      <c r="E100" t="s">
+        <v>330</v>
+      </c>
+      <c r="F100" t="s">
+        <v>331</v>
+      </c>
+      <c r="G100" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101">
+        <v>33</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" t="s">
+        <v>332</v>
+      </c>
+      <c r="E101" t="s">
+        <v>333</v>
+      </c>
+      <c r="F101" t="s">
+        <v>334</v>
+      </c>
+      <c r="G101" t="s">
+        <v>54</v>
+      </c>
+      <c r="H101" t="s">
+        <v>55</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102">
+        <v>33</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" t="s">
+        <v>335</v>
+      </c>
+      <c r="E102" t="s">
+        <v>336</v>
+      </c>
+      <c r="F102" t="s">
+        <v>337</v>
+      </c>
+      <c r="G102" t="s">
+        <v>102</v>
+      </c>
+      <c r="H102" t="s">
+        <v>103</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103">
+        <v>33</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>338</v>
+      </c>
+      <c r="E103" t="s">
+        <v>339</v>
+      </c>
+      <c r="F103" t="s">
+        <v>340</v>
+      </c>
+      <c r="G103" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" t="s">
+        <v>15</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104">
+        <v>33</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" t="s">
+        <v>341</v>
+      </c>
+      <c r="E104" t="s">
+        <v>342</v>
+      </c>
+      <c r="F104" t="s">
+        <v>343</v>
+      </c>
+      <c r="G104" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105">
+        <v>33</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" t="s">
+        <v>344</v>
+      </c>
+      <c r="E105" t="s">
+        <v>345</v>
+      </c>
+      <c r="F105" t="s">
+        <v>346</v>
+      </c>
+      <c r="G105" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" t="s">
+        <v>15</v>
+      </c>
+      <c r="I105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106">
+        <v>33</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" t="s">
+        <v>347</v>
+      </c>
+      <c r="E106" t="s">
+        <v>348</v>
+      </c>
+      <c r="F106" t="s">
+        <v>349</v>
+      </c>
+      <c r="G106" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107">
+        <v>33</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>350</v>
+      </c>
+      <c r="E107" t="s">
+        <v>351</v>
+      </c>
+      <c r="F107" t="s">
+        <v>352</v>
+      </c>
+      <c r="G107" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108">
+        <v>33</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s">
+        <v>353</v>
+      </c>
+      <c r="E108" t="s">
+        <v>354</v>
+      </c>
+      <c r="F108" t="s">
+        <v>355</v>
+      </c>
+      <c r="G108" t="s">
+        <v>54</v>
+      </c>
+      <c r="H108" t="s">
+        <v>55</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109">
+        <v>33</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s">
+        <v>356</v>
+      </c>
+      <c r="E109" t="s">
+        <v>357</v>
+      </c>
+      <c r="F109" t="s">
+        <v>358</v>
+      </c>
+      <c r="G109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110">
+        <v>33</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" t="s">
+        <v>359</v>
+      </c>
+      <c r="E110" t="s">
+        <v>360</v>
+      </c>
+      <c r="F110" t="s">
+        <v>361</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" t="s">
+        <v>15</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111">
+        <v>33</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" t="s">
+        <v>362</v>
+      </c>
+      <c r="E111" t="s">
+        <v>363</v>
+      </c>
+      <c r="F111" t="s">
+        <v>364</v>
+      </c>
+      <c r="G111" t="s">
+        <v>85</v>
+      </c>
+      <c r="H111" t="s">
+        <v>86</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112">
+        <v>33</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" t="s">
+        <v>365</v>
+      </c>
+      <c r="E112" t="s">
+        <v>366</v>
+      </c>
+      <c r="F112" t="s">
+        <v>367</v>
+      </c>
+      <c r="G112" t="s">
+        <v>54</v>
+      </c>
+      <c r="H112" t="s">
+        <v>55</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113">
+        <v>33</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s">
+        <v>368</v>
+      </c>
+      <c r="E113" t="s">
+        <v>369</v>
+      </c>
+      <c r="F113" t="s">
+        <v>370</v>
+      </c>
+      <c r="G113" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" t="s">
+        <v>15</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114">
+        <v>33</v>
+      </c>
+      <c r="C114" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" t="s">
+        <v>371</v>
+      </c>
+      <c r="E114" t="s">
+        <v>372</v>
+      </c>
+      <c r="F114" t="s">
+        <v>373</v>
+      </c>
+      <c r="G114" t="s">
+        <v>261</v>
+      </c>
+      <c r="H114" t="s">
+        <v>262</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115">
+        <v>33</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" t="s">
+        <v>374</v>
+      </c>
+      <c r="E115" t="s">
+        <v>375</v>
+      </c>
+      <c r="F115" t="s">
+        <v>376</v>
+      </c>
+      <c r="G115" t="s">
+        <v>197</v>
+      </c>
+      <c r="H115" t="s">
+        <v>198</v>
+      </c>
+      <c r="I115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116">
+        <v>33</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" t="s">
+        <v>377</v>
+      </c>
+      <c r="E116" t="s">
+        <v>378</v>
+      </c>
+      <c r="F116" t="s">
+        <v>379</v>
+      </c>
+      <c r="G116" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" t="s">
+        <v>15</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117">
+        <v>33</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>380</v>
+      </c>
+      <c r="E117" t="s">
+        <v>381</v>
+      </c>
+      <c r="F117" t="s">
+        <v>382</v>
+      </c>
+      <c r="G117" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" t="s">
+        <v>15</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118">
+        <v>33</v>
+      </c>
+      <c r="C118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" t="s">
+        <v>383</v>
+      </c>
+      <c r="E118" t="s">
+        <v>384</v>
+      </c>
+      <c r="F118" t="s">
+        <v>385</v>
+      </c>
+      <c r="G118" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119">
+        <v>33</v>
+      </c>
+      <c r="C119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" t="s">
+        <v>386</v>
+      </c>
+      <c r="E119" t="s">
+        <v>387</v>
+      </c>
+      <c r="F119" t="s">
+        <v>388</v>
+      </c>
+      <c r="G119" t="s">
+        <v>102</v>
+      </c>
+      <c r="H119" t="s">
+        <v>103</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120">
+        <v>33</v>
+      </c>
+      <c r="C120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" t="s">
+        <v>389</v>
+      </c>
+      <c r="E120" t="s">
+        <v>390</v>
+      </c>
+      <c r="F120" t="s">
+        <v>391</v>
+      </c>
+      <c r="G120" t="s">
+        <v>68</v>
+      </c>
+      <c r="H120" t="s">
+        <v>69</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121">
+        <v>33</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" t="s">
+        <v>392</v>
+      </c>
+      <c r="E121" t="s">
+        <v>393</v>
+      </c>
+      <c r="F121" t="s">
+        <v>394</v>
+      </c>
+      <c r="G121" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" t="s">
+        <v>15</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122">
+        <v>33</v>
+      </c>
+      <c r="C122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" t="s">
+        <v>395</v>
+      </c>
+      <c r="E122" t="s">
+        <v>396</v>
+      </c>
+      <c r="F122" t="s">
+        <v>397</v>
+      </c>
+      <c r="G122" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" t="s">
+        <v>15</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123">
+        <v>33</v>
+      </c>
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" t="s">
+        <v>398</v>
+      </c>
+      <c r="E123" t="s">
+        <v>399</v>
+      </c>
+      <c r="F123" t="s">
+        <v>400</v>
+      </c>
+      <c r="G123" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" t="s">
+        <v>15</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124">
+        <v>33</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" t="s">
+        <v>401</v>
+      </c>
+      <c r="E124" t="s">
+        <v>402</v>
+      </c>
+      <c r="F124" t="s">
+        <v>403</v>
+      </c>
+      <c r="G124" t="s">
+        <v>160</v>
+      </c>
+      <c r="H124" t="s">
+        <v>161</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125">
+        <v>33</v>
+      </c>
+      <c r="C125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" t="s">
+        <v>404</v>
+      </c>
+      <c r="E125" t="s">
+        <v>405</v>
+      </c>
+      <c r="F125" t="s">
+        <v>406</v>
+      </c>
+      <c r="G125" t="s">
+        <v>177</v>
+      </c>
+      <c r="H125" t="s">
+        <v>178</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126">
+        <v>33</v>
+      </c>
+      <c r="C126" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" t="s">
+        <v>407</v>
+      </c>
+      <c r="E126" t="s">
+        <v>408</v>
+      </c>
+      <c r="F126" t="s">
+        <v>409</v>
+      </c>
+      <c r="G126" t="s">
+        <v>85</v>
+      </c>
+      <c r="H126" t="s">
+        <v>86</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127">
+        <v>33</v>
+      </c>
+      <c r="C127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" t="s">
+        <v>410</v>
+      </c>
+      <c r="E127" t="s">
+        <v>411</v>
+      </c>
+      <c r="F127" t="s">
+        <v>412</v>
+      </c>
+      <c r="G127" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" t="s">
+        <v>15</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128">
+        <v>33</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" t="s">
+        <v>413</v>
+      </c>
+      <c r="E128" t="s">
+        <v>414</v>
+      </c>
+      <c r="F128" t="s">
+        <v>415</v>
+      </c>
+      <c r="G128" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" t="s">
+        <v>15</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129">
+        <v>33</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" t="s">
+        <v>416</v>
+      </c>
+      <c r="E129" t="s">
+        <v>417</v>
+      </c>
+      <c r="F129" t="s">
+        <v>418</v>
+      </c>
+      <c r="G129" t="s">
+        <v>160</v>
+      </c>
+      <c r="H129" t="s">
+        <v>161</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130">
+        <v>33</v>
+      </c>
+      <c r="C130" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" t="s">
+        <v>419</v>
+      </c>
+      <c r="E130" t="s">
+        <v>420</v>
+      </c>
+      <c r="F130" t="s">
+        <v>421</v>
+      </c>
+      <c r="G130" t="s">
+        <v>85</v>
+      </c>
+      <c r="H130" t="s">
+        <v>86</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131">
+        <v>33</v>
+      </c>
+      <c r="C131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" t="s">
+        <v>422</v>
+      </c>
+      <c r="E131" t="s">
+        <v>423</v>
+      </c>
+      <c r="F131" t="s">
+        <v>424</v>
+      </c>
+      <c r="G131" t="s">
+        <v>85</v>
+      </c>
+      <c r="H131" t="s">
+        <v>86</v>
+      </c>
+      <c r="I131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132">
+        <v>33</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" t="s">
+        <v>425</v>
+      </c>
+      <c r="E132" t="s">
+        <v>426</v>
+      </c>
+      <c r="F132" t="s">
+        <v>427</v>
+      </c>
+      <c r="G132" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" t="s">
+        <v>15</v>
+      </c>
+      <c r="I132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133">
+        <v>33</v>
+      </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" t="s">
+        <v>428</v>
+      </c>
+      <c r="E133" t="s">
+        <v>429</v>
+      </c>
+      <c r="F133" t="s">
+        <v>430</v>
+      </c>
+      <c r="G133" t="s">
+        <v>14</v>
+      </c>
+      <c r="H133" t="s">
+        <v>15</v>
+      </c>
+      <c r="I133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134">
+        <v>33</v>
+      </c>
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" t="s">
+        <v>431</v>
+      </c>
+      <c r="E134" t="s">
+        <v>432</v>
+      </c>
+      <c r="F134" t="s">
+        <v>433</v>
+      </c>
+      <c r="G134" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" t="s">
+        <v>15</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135">
+        <v>33</v>
+      </c>
+      <c r="C135" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" t="s">
+        <v>434</v>
+      </c>
+      <c r="E135" t="s">
+        <v>435</v>
+      </c>
+      <c r="F135" t="s">
+        <v>436</v>
+      </c>
+      <c r="G135" t="s">
+        <v>85</v>
+      </c>
+      <c r="H135" t="s">
+        <v>86</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136">
+        <v>33</v>
+      </c>
+      <c r="C136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" t="s">
+        <v>437</v>
+      </c>
+      <c r="E136" t="s">
+        <v>438</v>
+      </c>
+      <c r="F136" t="s">
+        <v>439</v>
+      </c>
+      <c r="G136" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" t="s">
+        <v>15</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137">
+        <v>33</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" t="s">
+        <v>440</v>
+      </c>
+      <c r="E137" t="s">
+        <v>441</v>
+      </c>
+      <c r="F137" t="s">
+        <v>442</v>
+      </c>
+      <c r="G137" t="s">
+        <v>14</v>
+      </c>
+      <c r="H137" t="s">
+        <v>15</v>
+      </c>
+      <c r="I137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138">
+        <v>33</v>
+      </c>
+      <c r="C138" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" t="s">
+        <v>443</v>
+      </c>
+      <c r="E138" t="s">
+        <v>444</v>
+      </c>
+      <c r="F138" t="s">
+        <v>445</v>
+      </c>
+      <c r="G138" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" t="s">
+        <v>15</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139">
+        <v>33</v>
+      </c>
+      <c r="C139" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" t="s">
+        <v>446</v>
+      </c>
+      <c r="E139" t="s">
+        <v>447</v>
+      </c>
+      <c r="F139" t="s">
+        <v>448</v>
+      </c>
+      <c r="G139" t="s">
+        <v>247</v>
+      </c>
+      <c r="H139" t="s">
+        <v>248</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140">
+        <v>33</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" t="s">
+        <v>449</v>
+      </c>
+      <c r="E140" t="s">
+        <v>450</v>
+      </c>
+      <c r="F140" t="s">
+        <v>451</v>
+      </c>
+      <c r="G140" t="s">
+        <v>85</v>
+      </c>
+      <c r="H140" t="s">
+        <v>86</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141">
+        <v>33</v>
+      </c>
+      <c r="C141" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" t="s">
+        <v>452</v>
+      </c>
+      <c r="E141" t="s">
+        <v>453</v>
+      </c>
+      <c r="F141" t="s">
+        <v>454</v>
+      </c>
+      <c r="G141" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" t="s">
+        <v>15</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142">
+        <v>33</v>
+      </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" t="s">
+        <v>455</v>
+      </c>
+      <c r="E142" t="s">
+        <v>456</v>
+      </c>
+      <c r="F142" t="s">
+        <v>457</v>
+      </c>
+      <c r="G142" t="s">
+        <v>14</v>
+      </c>
+      <c r="H142" t="s">
+        <v>15</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143">
+        <v>33</v>
+      </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" t="s">
+        <v>458</v>
+      </c>
+      <c r="E143" t="s">
+        <v>459</v>
+      </c>
+      <c r="F143" t="s">
+        <v>460</v>
+      </c>
+      <c r="G143" t="s">
+        <v>14</v>
+      </c>
+      <c r="H143" t="s">
+        <v>15</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144">
+        <v>33</v>
+      </c>
+      <c r="C144" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" t="s">
+        <v>461</v>
+      </c>
+      <c r="E144" t="s">
+        <v>462</v>
+      </c>
+      <c r="F144" t="s">
+        <v>463</v>
+      </c>
+      <c r="G144" t="s">
+        <v>160</v>
+      </c>
+      <c r="H144" t="s">
+        <v>161</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145">
+        <v>33</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" t="s">
+        <v>464</v>
+      </c>
+      <c r="E145" t="s">
+        <v>465</v>
+      </c>
+      <c r="F145" t="s">
+        <v>466</v>
+      </c>
+      <c r="G145" t="s">
+        <v>160</v>
+      </c>
+      <c r="H145" t="s">
+        <v>161</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146">
+        <v>33</v>
+      </c>
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" t="s">
+        <v>467</v>
+      </c>
+      <c r="E146" t="s">
+        <v>468</v>
+      </c>
+      <c r="F146" t="s">
+        <v>469</v>
+      </c>
+      <c r="G146" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" t="s">
+        <v>15</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147">
+        <v>33</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" t="s">
+        <v>470</v>
+      </c>
+      <c r="E147" t="s">
+        <v>471</v>
+      </c>
+      <c r="F147" t="s">
+        <v>472</v>
+      </c>
+      <c r="G147" t="s">
+        <v>102</v>
+      </c>
+      <c r="H147" t="s">
+        <v>103</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148">
+        <v>33</v>
+      </c>
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" t="s">
+        <v>473</v>
+      </c>
+      <c r="E148" t="s">
+        <v>474</v>
+      </c>
+      <c r="F148" t="s">
+        <v>475</v>
+      </c>
+      <c r="G148" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" t="s">
+        <v>15</v>
+      </c>
+      <c r="I148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149">
+        <v>33</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" t="s">
+        <v>476</v>
+      </c>
+      <c r="E149" t="s">
+        <v>477</v>
+      </c>
+      <c r="F149" t="s">
+        <v>478</v>
+      </c>
+      <c r="G149" t="s">
+        <v>85</v>
+      </c>
+      <c r="H149" t="s">
+        <v>86</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150">
+        <v>33</v>
+      </c>
+      <c r="C150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" t="s">
+        <v>479</v>
+      </c>
+      <c r="E150" t="s">
+        <v>480</v>
+      </c>
+      <c r="F150" t="s">
+        <v>481</v>
+      </c>
+      <c r="G150" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150" t="s">
+        <v>15</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151">
+        <v>33</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" t="s">
+        <v>482</v>
+      </c>
+      <c r="E151" t="s">
+        <v>483</v>
+      </c>
+      <c r="F151" t="s">
+        <v>484</v>
+      </c>
+      <c r="G151" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151" t="s">
+        <v>15</v>
+      </c>
+      <c r="I151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152">
+        <v>33</v>
+      </c>
+      <c r="C152" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" t="s">
+        <v>485</v>
+      </c>
+      <c r="E152" t="s">
+        <v>486</v>
+      </c>
+      <c r="F152" t="s">
+        <v>487</v>
+      </c>
+      <c r="G152" t="s">
+        <v>85</v>
+      </c>
+      <c r="H152" t="s">
+        <v>86</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/assets/documents/templateData/pagoJuguetes.xlsx
+++ b/assets/documents/templateData/pagoJuguetes.xlsx
@@ -50,6 +50,375 @@
     <t>PERMANENTE BASE</t>
   </si>
   <si>
+    <t>AAMG881028FB9</t>
+  </si>
+  <si>
+    <t>0316452</t>
+  </si>
+  <si>
+    <t>MORALES ALFARO GABRIELA DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>ENFERMERA DE ATENCION CLINICA</t>
+  </si>
+  <si>
+    <t>M12002</t>
+  </si>
+  <si>
+    <t>AAPJ860506LP8</t>
+  </si>
+  <si>
+    <t>0319897</t>
+  </si>
+  <si>
+    <t>PEREZ ABADIA MARIA JUDITH</t>
+  </si>
+  <si>
+    <t>NUTRICIONISTA DIETISTA</t>
+  </si>
+  <si>
+    <t>M12010</t>
+  </si>
+  <si>
+    <t>AARE870705D75</t>
+  </si>
+  <si>
+    <t>0316440</t>
+  </si>
+  <si>
+    <t>RINCON ALCAZAR ERIKA JUDITH</t>
+  </si>
+  <si>
+    <t>AARR890827QS3</t>
+  </si>
+  <si>
+    <t>0316493</t>
+  </si>
+  <si>
+    <t>RUIZ ANZA RODULFO</t>
+  </si>
+  <si>
+    <t>AOMA820421JX0</t>
+  </si>
+  <si>
+    <t>0319068</t>
+  </si>
+  <si>
+    <t>MORENO ALBORES ALBA NOEMI</t>
+  </si>
+  <si>
+    <t>MEDICO GENERAL</t>
+  </si>
+  <si>
+    <t>M11002</t>
+  </si>
+  <si>
+    <t>AOMY831206AS5</t>
+  </si>
+  <si>
+    <t>0319077</t>
+  </si>
+  <si>
+    <t>MALDONADO ALFONZO YANET DEL ROCIO</t>
+  </si>
+  <si>
+    <t>AUAB850511JZA</t>
+  </si>
+  <si>
+    <t>0319899</t>
+  </si>
+  <si>
+    <t>ARREOLA AHUMADA BERENICE</t>
+  </si>
+  <si>
+    <t>AUAD900905AY4</t>
+  </si>
+  <si>
+    <t>0319901</t>
+  </si>
+  <si>
+    <t>AGUILAR ARGUELLO DOLORES ALEJANDRA</t>
+  </si>
+  <si>
+    <t>AUAN881225AY6</t>
+  </si>
+  <si>
+    <t>0316379</t>
+  </si>
+  <si>
+    <t>AGUILAR AGUILAR NANCY MANUELA</t>
+  </si>
+  <si>
+    <t>AUGN9110298H3</t>
+  </si>
+  <si>
+    <t>0316383</t>
+  </si>
+  <si>
+    <t>GARCIA AGUILAR NERY ENRIQUE</t>
+  </si>
+  <si>
+    <t>AUHA860416U95</t>
+  </si>
+  <si>
+    <t>0319898</t>
+  </si>
+  <si>
+    <t>HERNANDEZ AGUILAR AURORA GUADALUPE</t>
+  </si>
+  <si>
+    <t>AUHR910426U60</t>
+  </si>
+  <si>
+    <t>0316388</t>
+  </si>
+  <si>
+    <t>HERNANDEZ AGUILAR ROBERTO</t>
+  </si>
+  <si>
+    <t>AUHT8901108H8</t>
+  </si>
+  <si>
+    <t>0316391</t>
+  </si>
+  <si>
+    <t>HERNANDEZ AGUILAR JOSE TRINIDAD</t>
+  </si>
+  <si>
+    <t>AULD900731945</t>
+  </si>
+  <si>
+    <t>0316392</t>
+  </si>
+  <si>
+    <t>LOPEZ AGUILAR DANIEL DE JESUS</t>
+  </si>
+  <si>
+    <t>AUPC840925UY6</t>
+  </si>
+  <si>
+    <t>0319058</t>
+  </si>
+  <si>
+    <t>PINTO AGUILAR CAROLINA</t>
+  </si>
+  <si>
+    <t>AUPV8512074M8</t>
+  </si>
+  <si>
+    <t>0320266</t>
+  </si>
+  <si>
+    <t>PULIDO ARGUELLO VIRGINIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>TECNICO LABORATORISTA</t>
+  </si>
+  <si>
+    <t>M12013</t>
+  </si>
+  <si>
+    <t>AUVM860612LI0</t>
+  </si>
+  <si>
+    <t>0320419</t>
+  </si>
+  <si>
+    <t>VAZQUEZ AGUILAR MARISELA</t>
+  </si>
+  <si>
+    <t>TRABAJADORA SOCIAL</t>
+  </si>
+  <si>
+    <t>M12021</t>
+  </si>
+  <si>
+    <t>BACG821015TI2</t>
+  </si>
+  <si>
+    <t>0316562</t>
+  </si>
+  <si>
+    <t>CARRILLO BARRIOS GADI ESVEY</t>
+  </si>
+  <si>
+    <t>BAGB8411206J5</t>
+  </si>
+  <si>
+    <t>0316567</t>
+  </si>
+  <si>
+    <t>GONZALEZ BARTOLOME BIANCA VANESSA</t>
+  </si>
+  <si>
+    <t>CAFD861007NS5</t>
+  </si>
+  <si>
+    <t>0319467</t>
+  </si>
+  <si>
+    <t>FIGUEROA CHAVEZ DAMARIS YOHAIRA</t>
+  </si>
+  <si>
+    <t>CAGL890128QE5</t>
+  </si>
+  <si>
+    <t>0316093</t>
+  </si>
+  <si>
+    <t>GARCIA CALVO LUCERO</t>
+  </si>
+  <si>
+    <t>CAMI921119GH4</t>
+  </si>
+  <si>
+    <t>0316099</t>
+  </si>
+  <si>
+    <t>MORALES CALVO IRIS ROXANA</t>
+  </si>
+  <si>
+    <t>CAMJ9112231W6</t>
+  </si>
+  <si>
+    <t>0318662</t>
+  </si>
+  <si>
+    <t>MORALES CABRERA JANETH ESELY</t>
+  </si>
+  <si>
+    <t>MEDICO ESPECIALISTA HOSPITAL</t>
+  </si>
+  <si>
+    <t>M11001</t>
+  </si>
+  <si>
+    <t>CICM870316AF9</t>
+  </si>
+  <si>
+    <t>0316106</t>
+  </si>
+  <si>
+    <t>CABRERA CIFUENTES MONICA YAZMIN</t>
+  </si>
+  <si>
+    <t>COAP861030NU1</t>
+  </si>
+  <si>
+    <t>0318954</t>
+  </si>
+  <si>
+    <t>AGUILAR CORDOVA PAOLA BERENICE</t>
+  </si>
+  <si>
+    <t>COMB861203UP7</t>
+  </si>
+  <si>
+    <t>0318918</t>
+  </si>
+  <si>
+    <t>MOLINA COELLO BELEN CANDELARIA</t>
+  </si>
+  <si>
+    <t>COPA930123UC8</t>
+  </si>
+  <si>
+    <t>0318440</t>
+  </si>
+  <si>
+    <t>PEREZ CORDERO ANA ELIZABETH</t>
+  </si>
+  <si>
+    <t>ENFERMERA ESPECIALISTA</t>
+  </si>
+  <si>
+    <t>M12001</t>
+  </si>
+  <si>
+    <t>CULP921220IT6</t>
+  </si>
+  <si>
+    <t>0316117</t>
+  </si>
+  <si>
+    <t>LOPEZ CRUZ PAOLA GUADALUPE</t>
+  </si>
+  <si>
+    <t>CUSA900505HR3</t>
+  </si>
+  <si>
+    <t>0320317</t>
+  </si>
+  <si>
+    <t>SANGUINO DE LA CRUZ ARNULFO</t>
+  </si>
+  <si>
+    <t>TECNICO RADIOLOGO</t>
+  </si>
+  <si>
+    <t>M12014</t>
+  </si>
+  <si>
+    <t>DIGL881027RA0</t>
+  </si>
+  <si>
+    <t>0316125</t>
+  </si>
+  <si>
+    <t>GOMEZ DIAZ LILIA</t>
+  </si>
+  <si>
+    <t>DIVD8301206C2</t>
+  </si>
+  <si>
+    <t>0320079</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ DIAZ DIANA LIZETH</t>
+  </si>
+  <si>
+    <t>QUIMICO CLINICO</t>
+  </si>
+  <si>
+    <t>M12008</t>
+  </si>
+  <si>
+    <t>DOGA820313SM2</t>
+  </si>
+  <si>
+    <t>0316084</t>
+  </si>
+  <si>
+    <t>GOMEZ DOMINGUEZ ANTONIO</t>
+  </si>
+  <si>
+    <t>DOMK890610DU2</t>
+  </si>
+  <si>
+    <t>0316135</t>
+  </si>
+  <si>
+    <t>MORALES DOMINGUEZ KARINA</t>
+  </si>
+  <si>
+    <t>EADY900927TN7</t>
+  </si>
+  <si>
+    <t>0317950</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ ESTRADA YESSICA LIZBETH</t>
+  </si>
+  <si>
+    <t>EIGN910101TB8</t>
+  </si>
+  <si>
+    <t>0318383</t>
+  </si>
+  <si>
+    <t>GARCIA ESPINOSA NANCI ELIZABETH</t>
+  </si>
+  <si>
     <t>EILE920528RXA</t>
   </si>
   <si>
@@ -59,10 +428,700 @@
     <t>LOPEZ ESPINOSA EDUARDO DANIEL</t>
   </si>
   <si>
-    <t>ENFERMERA DE ATENCION CLINICA</t>
-  </si>
-  <si>
-    <t>M12002</t>
+    <t>EILM891127TE4</t>
+  </si>
+  <si>
+    <t>0317938</t>
+  </si>
+  <si>
+    <t>LOPEZ ESPINOZA MARIFLOR</t>
+  </si>
+  <si>
+    <t>EIME900522P11</t>
+  </si>
+  <si>
+    <t>0317929</t>
+  </si>
+  <si>
+    <t>MALDONADO ESPINOSA MARIA ESTHER</t>
+  </si>
+  <si>
+    <t>EIVD910718520</t>
+  </si>
+  <si>
+    <t>0320301</t>
+  </si>
+  <si>
+    <t>VIVES ESPINOSA DAFFNE ANAID</t>
+  </si>
+  <si>
+    <t>FOAL860927V50</t>
+  </si>
+  <si>
+    <t>0319420</t>
+  </si>
+  <si>
+    <t>AGUILAR FLORES JOSE LUIS</t>
+  </si>
+  <si>
+    <t>FOMS9101317C2</t>
+  </si>
+  <si>
+    <t>0317317</t>
+  </si>
+  <si>
+    <t>MARTINEZ FLORES SONIA DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>GAAD85093076A</t>
+  </si>
+  <si>
+    <t>0317867</t>
+  </si>
+  <si>
+    <t>ARGUELLO GARCIA DORA</t>
+  </si>
+  <si>
+    <t>GAGC941021CE3</t>
+  </si>
+  <si>
+    <t>0317973</t>
+  </si>
+  <si>
+    <t>GUILLEN GARCIA CIELO ARMINDA</t>
+  </si>
+  <si>
+    <t>GAMC890620M51</t>
+  </si>
+  <si>
+    <t>0317804</t>
+  </si>
+  <si>
+    <t>MORALES GARCIA CLAUDIA ELIZABETH</t>
+  </si>
+  <si>
+    <t>GARN860511TI4</t>
+  </si>
+  <si>
+    <t>0318827</t>
+  </si>
+  <si>
+    <t>RUIZ GARCIA NALLELY GUADALUPE</t>
+  </si>
+  <si>
+    <t>GATN940213DM9</t>
+  </si>
+  <si>
+    <t>0317761</t>
+  </si>
+  <si>
+    <t>TOVAR GARCIA NELLY VALENTINA</t>
+  </si>
+  <si>
+    <t>GOAL8903113B4</t>
+  </si>
+  <si>
+    <t>0318043</t>
+  </si>
+  <si>
+    <t>ARRAZATE GORDILLO LORENA DEL ROCIO</t>
+  </si>
+  <si>
+    <t>GOAY9306137I5</t>
+  </si>
+  <si>
+    <t>0318384</t>
+  </si>
+  <si>
+    <t>AGUILAR GONZALEZ YULIANA ANTONIETA</t>
+  </si>
+  <si>
+    <t>GOGA910401SP5</t>
+  </si>
+  <si>
+    <t>0317797</t>
+  </si>
+  <si>
+    <t>GOMEZ GOMEZ JOSE ABRAHAM</t>
+  </si>
+  <si>
+    <t>GOGG890227M4A</t>
+  </si>
+  <si>
+    <t>0317772</t>
+  </si>
+  <si>
+    <t>GOMEZ GOMEZ GABRIELA</t>
+  </si>
+  <si>
+    <t>GOLJ9008017N4</t>
+  </si>
+  <si>
+    <t>0319637</t>
+  </si>
+  <si>
+    <t>LOPEZ GORDILLO JULIO ALEJANDRO</t>
+  </si>
+  <si>
+    <t>GOMA9005306C5</t>
+  </si>
+  <si>
+    <t>0318042</t>
+  </si>
+  <si>
+    <t>MORALES GORDILLO ALMENDRA KARINA</t>
+  </si>
+  <si>
+    <t>GOMD8409067E0</t>
+  </si>
+  <si>
+    <t>0316048</t>
+  </si>
+  <si>
+    <t>MORALES GORDILLO DENICE DEL CARMEN</t>
+  </si>
+  <si>
+    <t>COCINERO</t>
+  </si>
+  <si>
+    <t>M12020</t>
+  </si>
+  <si>
+    <t>GOMY830809953</t>
+  </si>
+  <si>
+    <t>0319947</t>
+  </si>
+  <si>
+    <t>MORALES GONZALEZ YESENIA MARGARITA</t>
+  </si>
+  <si>
+    <t>GOPS910801HP3</t>
+  </si>
+  <si>
+    <t>0318001</t>
+  </si>
+  <si>
+    <t>PEREZ GOMEZ SANDRA YANETH</t>
+  </si>
+  <si>
+    <t>GOSD920622LX4</t>
+  </si>
+  <si>
+    <t>0317798</t>
+  </si>
+  <si>
+    <t>SANTIAGO GONZALEZ DAMARIS YULIAN</t>
+  </si>
+  <si>
+    <t>GUCF891215J20</t>
+  </si>
+  <si>
+    <t>0320206</t>
+  </si>
+  <si>
+    <t>CABALLERO GUILLEN JOSE FERNANDO</t>
+  </si>
+  <si>
+    <t>GUHA910903HF8</t>
+  </si>
+  <si>
+    <t>0317839</t>
+  </si>
+  <si>
+    <t>HERNANDEZ GUILLEN ALICIA IVONNE</t>
+  </si>
+  <si>
+    <t>GUMC811122PK6</t>
+  </si>
+  <si>
+    <t>0317908</t>
+  </si>
+  <si>
+    <t>MORALES GUTIERREZ CECILIA</t>
+  </si>
+  <si>
+    <t>GUMJ860103TZ8</t>
+  </si>
+  <si>
+    <t>0317843</t>
+  </si>
+  <si>
+    <t>MAZARIEGOS GUTIERREZ JUANA ISABEL</t>
+  </si>
+  <si>
+    <t>GUSC8605071A1</t>
+  </si>
+  <si>
+    <t>0317801</t>
+  </si>
+  <si>
+    <t>SANCHEZ GUZMAN CECILIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>HEAC851019UB8</t>
+  </si>
+  <si>
+    <t>0316590</t>
+  </si>
+  <si>
+    <t>DE ARCIA HERNANDEZ MARIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>HEGC910108649</t>
+  </si>
+  <si>
+    <t>0318397</t>
+  </si>
+  <si>
+    <t>GARCIA HERNANDEZ CECILIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>HELR900727V17</t>
+  </si>
+  <si>
+    <t>0318403</t>
+  </si>
+  <si>
+    <t>LOPEZ HERNANDEZ RAFAEL</t>
+  </si>
+  <si>
+    <t>HERO800403FHA</t>
+  </si>
+  <si>
+    <t>0318669</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ HERNANDEZ OFELIA DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>HESA8001202A2</t>
+  </si>
+  <si>
+    <t>0318409</t>
+  </si>
+  <si>
+    <t>SANDOVAL HERNANDEZ JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>HEVC860620TQ6</t>
+  </si>
+  <si>
+    <t>0318717</t>
+  </si>
+  <si>
+    <t>VELASCO HERNANDEZ CARMEN DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>HEVC871025FE1</t>
+  </si>
+  <si>
+    <t>0316147</t>
+  </si>
+  <si>
+    <t>VAZQUEZ HERNANDEZ CLARIVEL</t>
+  </si>
+  <si>
+    <t>HEVS840312LK7</t>
+  </si>
+  <si>
+    <t>0320255</t>
+  </si>
+  <si>
+    <t>VAZQUEZ HERNANDEZ SERGIO FERMIN</t>
+  </si>
+  <si>
+    <t>JINE8301253W4</t>
+  </si>
+  <si>
+    <t>0316088</t>
+  </si>
+  <si>
+    <t>NANDAYAPA JIMENEZ ELVIRA DEL SOCORRO</t>
+  </si>
+  <si>
+    <t>JIOL8909287F4</t>
+  </si>
+  <si>
+    <t>0318670</t>
+  </si>
+  <si>
+    <t>ORTEGA JIMENEZ LUIS MAURICIO</t>
+  </si>
+  <si>
+    <t>JUCV820911LU6</t>
+  </si>
+  <si>
+    <t>0320404</t>
+  </si>
+  <si>
+    <t>CRUZ JUAREZ VICENTE</t>
+  </si>
+  <si>
+    <t>LEVB821209182</t>
+  </si>
+  <si>
+    <t>0317326</t>
+  </si>
+  <si>
+    <t>VENTURA LEON BELLANI</t>
+  </si>
+  <si>
+    <t>LOAL850121RL4</t>
+  </si>
+  <si>
+    <t>0315853</t>
+  </si>
+  <si>
+    <t>ALVARADO LOPEZ LORENA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>AUXILIAR DE ENFERMERIA</t>
+  </si>
+  <si>
+    <t>M12003</t>
+  </si>
+  <si>
+    <t>LOAL890525L22</t>
+  </si>
+  <si>
+    <t>0318572</t>
+  </si>
+  <si>
+    <t>AGUILAR LOPEZ LAURA GUADALUPE</t>
+  </si>
+  <si>
+    <t>LOAM791111988</t>
+  </si>
+  <si>
+    <t>0316005</t>
+  </si>
+  <si>
+    <t>AGUILAR LOPEZ MARTHA ELENA</t>
+  </si>
+  <si>
+    <t>LODC860503DS5</t>
+  </si>
+  <si>
+    <t>0317265</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ LOPEZ CRUSY YERALDIN</t>
+  </si>
+  <si>
+    <t>LOHA881020EK5</t>
+  </si>
+  <si>
+    <t>0319398</t>
+  </si>
+  <si>
+    <t>HERNANDEZ LOPEZ ALEJANDRA NINETH</t>
+  </si>
+  <si>
+    <t>LOHA930402EKA</t>
+  </si>
+  <si>
+    <t>0317334</t>
+  </si>
+  <si>
+    <t>HERNANDEZ LOPEZ ADAN</t>
+  </si>
+  <si>
+    <t>LOHL881120C79</t>
+  </si>
+  <si>
+    <t>0317271</t>
+  </si>
+  <si>
+    <t>HERNANDEZ LOPEZ LUCERO</t>
+  </si>
+  <si>
+    <t>LOLT910506562</t>
+  </si>
+  <si>
+    <t>0317240</t>
+  </si>
+  <si>
+    <t>LOPEZ LOPEZ TREISY MARIELA</t>
+  </si>
+  <si>
+    <t>LOPP900629ET2</t>
+  </si>
+  <si>
+    <t>0316601</t>
+  </si>
+  <si>
+    <t>PEREZ LOPEZ PATRICIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>LOSE810228GFA</t>
+  </si>
+  <si>
+    <t>0317250</t>
+  </si>
+  <si>
+    <t>SANTIAGO LOPEZ EZEQUIEL</t>
+  </si>
+  <si>
+    <t>MACA880305EL6</t>
+  </si>
+  <si>
+    <t>0317104</t>
+  </si>
+  <si>
+    <t>CASTILLO MARTINEZ ANA SILVIA</t>
+  </si>
+  <si>
+    <t>MACT8805281J2</t>
+  </si>
+  <si>
+    <t>0316729</t>
+  </si>
+  <si>
+    <t>CASTELLANOS MARROQUIN TERESA LETICIA</t>
+  </si>
+  <si>
+    <t>MACY860419PE9</t>
+  </si>
+  <si>
+    <t>0317106</t>
+  </si>
+  <si>
+    <t>CASTILLO MARTINEZ YOELI VERENICE</t>
+  </si>
+  <si>
+    <t>MALG920304GI0</t>
+  </si>
+  <si>
+    <t>0317109</t>
+  </si>
+  <si>
+    <t>LOPEZ MAZARIEGOS GABRIELA</t>
+  </si>
+  <si>
+    <t>MALR890830C30</t>
+  </si>
+  <si>
+    <t>0317112</t>
+  </si>
+  <si>
+    <t>LOPEZ MALDONADO MARIA DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>MALT8905294T3</t>
+  </si>
+  <si>
+    <t>0316745</t>
+  </si>
+  <si>
+    <t>LOPEZ MARTINEZ TERESA DE JESUS</t>
+  </si>
+  <si>
+    <t>MAML8106089U5</t>
+  </si>
+  <si>
+    <t>0319209</t>
+  </si>
+  <si>
+    <t>MAYORGA MATADAMAS LUIS ALBERTO</t>
+  </si>
+  <si>
+    <t>MARG910221US4</t>
+  </si>
+  <si>
+    <t>0316728</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ MARROQUIN GUILIANEY</t>
+  </si>
+  <si>
+    <t>MARI9112061Y1</t>
+  </si>
+  <si>
+    <t>0316738</t>
+  </si>
+  <si>
+    <t>RODAS MARTINEZ IRIS FABIOLA</t>
+  </si>
+  <si>
+    <t>MASA910723KC5</t>
+  </si>
+  <si>
+    <t>0317115</t>
+  </si>
+  <si>
+    <t>SANTIAGO MALDONADO ANA KARINA</t>
+  </si>
+  <si>
+    <t>MEAJ9012135ZA</t>
+  </si>
+  <si>
+    <t>0320449</t>
+  </si>
+  <si>
+    <t>AGUILAR MENDEZ JENNI JOCABETH</t>
+  </si>
+  <si>
+    <t>MEGM9009268C0</t>
+  </si>
+  <si>
+    <t>0316771</t>
+  </si>
+  <si>
+    <t>GARCIA MENDEZ MARICELA</t>
+  </si>
+  <si>
+    <t>MOAS870512HG3</t>
+  </si>
+  <si>
+    <t>0320152</t>
+  </si>
+  <si>
+    <t>ABADIA MONJARAS SANDRA NAYELI</t>
+  </si>
+  <si>
+    <t>MOAS890130JM2</t>
+  </si>
+  <si>
+    <t>0318501</t>
+  </si>
+  <si>
+    <t>ARMAS MORALES SERGIO MARTIN</t>
+  </si>
+  <si>
+    <t>MOCA880818NF6</t>
+  </si>
+  <si>
+    <t>0317133</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ MONTESINOS ANGELICA</t>
+  </si>
+  <si>
+    <t>MODC860506KUA</t>
+  </si>
+  <si>
+    <t>0320153</t>
+  </si>
+  <si>
+    <t>DIAZ MORALES CHRISTIAN SOLEDAD</t>
+  </si>
+  <si>
+    <t>MOEN880801H60</t>
+  </si>
+  <si>
+    <t>0317134</t>
+  </si>
+  <si>
+    <t>ESPINOSA MORENO NERY DEL CARMEN</t>
+  </si>
+  <si>
+    <t>MOGD910806Q26</t>
+  </si>
+  <si>
+    <t>0317136</t>
+  </si>
+  <si>
+    <t>GUILLEN MORENO DEYVI ELIZABETH</t>
+  </si>
+  <si>
+    <t>MOHV8912272B9</t>
+  </si>
+  <si>
+    <t>0316809</t>
+  </si>
+  <si>
+    <t>HERRERA MORALES VERONICA GUADALUPE</t>
+  </si>
+  <si>
+    <t>MOLR880616IW1</t>
+  </si>
+  <si>
+    <t>0317141</t>
+  </si>
+  <si>
+    <t>LUNA MORALES ROXANA PATRICIA</t>
+  </si>
+  <si>
+    <t>MOMP871118IZ5</t>
+  </si>
+  <si>
+    <t>0316803</t>
+  </si>
+  <si>
+    <t>MENESES MONTELONGO PERLA PATRICIA</t>
+  </si>
+  <si>
+    <t>MOMS9103137K6</t>
+  </si>
+  <si>
+    <t>0318425</t>
+  </si>
+  <si>
+    <t>MORALES MONJARAZ SUSANA ELIZABETH</t>
+  </si>
+  <si>
+    <t>MOTG8311269U1</t>
+  </si>
+  <si>
+    <t>0319363</t>
+  </si>
+  <si>
+    <t>TOALA MOLANO GABRIELA YAZMIN</t>
+  </si>
+  <si>
+    <t>NALC921026IM6</t>
+  </si>
+  <si>
+    <t>0318080</t>
+  </si>
+  <si>
+    <t>LOPEZ NAJERA CLAUDIA ELIZABETH</t>
+  </si>
+  <si>
+    <t>NAPA950427E12</t>
+  </si>
+  <si>
+    <t>0318091</t>
+  </si>
+  <si>
+    <t>PEREZ NAVARRO ANA GLORIA</t>
+  </si>
+  <si>
+    <t>NAPJ870603MA9</t>
+  </si>
+  <si>
+    <t>0320383</t>
+  </si>
+  <si>
+    <t>PEREZ NAJERA JOSE</t>
+  </si>
+  <si>
+    <t>NILO840817GDA</t>
+  </si>
+  <si>
+    <t>0318865</t>
+  </si>
+  <si>
+    <t>LOPEZ NIETO OSCAR FERNANDO</t>
+  </si>
+  <si>
+    <t>OIPJ840121SQ5</t>
+  </si>
+  <si>
+    <t>0317659</t>
+  </si>
+  <si>
+    <t>PEREZ ORTIZ JOSEFA</t>
+  </si>
+  <si>
+    <t>PEGL920114T21</t>
+  </si>
+  <si>
+    <t>0320131</t>
+  </si>
+  <si>
+    <t>GORDILLO PENAGOS LAURA NALLELY</t>
   </si>
   <si>
     <t>PUCY890607KT9</t>
@@ -74,6 +1133,303 @@
     <t>CASTILLO PULIDO YANETH DEL SOCORRO</t>
   </si>
   <si>
+    <t>PUML900804AX3</t>
+  </si>
+  <si>
+    <t>0317010</t>
+  </si>
+  <si>
+    <t>MONJARAS PULIDO LESVIA ISABEL</t>
+  </si>
+  <si>
+    <t>RAGG890406IP4</t>
+  </si>
+  <si>
+    <t>0317391</t>
+  </si>
+  <si>
+    <t>GORDILLO RAMIREZ GRISELDA CAROLINA</t>
+  </si>
+  <si>
+    <t>RAHB891219951</t>
+  </si>
+  <si>
+    <t>0317370</t>
+  </si>
+  <si>
+    <t>HERNANDEZ RAMIREZ BEATRIZ ADRIANA</t>
+  </si>
+  <si>
+    <t>RALP850623JF0</t>
+  </si>
+  <si>
+    <t>0319312</t>
+  </si>
+  <si>
+    <t>LOPEZ RAMOS PARIS ALBERTO</t>
+  </si>
+  <si>
+    <t>RELI930226AL0</t>
+  </si>
+  <si>
+    <t>0316079</t>
+  </si>
+  <si>
+    <t>LARA REYES ILSE ABRIL</t>
+  </si>
+  <si>
+    <t>REPI870227RH4</t>
+  </si>
+  <si>
+    <t>0320146</t>
+  </si>
+  <si>
+    <t>PEREZ REZA ISIS GUADALUPE</t>
+  </si>
+  <si>
+    <t>ROGA781030JW9</t>
+  </si>
+  <si>
+    <t>0315832</t>
+  </si>
+  <si>
+    <t>GOMEZ RODAS MARIA DE LOS ANGELES</t>
+  </si>
+  <si>
+    <t>ROHC891104PL1</t>
+  </si>
+  <si>
+    <t>0319453</t>
+  </si>
+  <si>
+    <t>HERRERA ROMAN CARLOS LENIN</t>
+  </si>
+  <si>
+    <t>ROHM890516T19</t>
+  </si>
+  <si>
+    <t>0320492</t>
+  </si>
+  <si>
+    <t>HIDALGO RODRIGUEZ MAYELA GUADALUPE</t>
+  </si>
+  <si>
+    <t>ROLG820219K33</t>
+  </si>
+  <si>
+    <t>0317382</t>
+  </si>
+  <si>
+    <t>LOPEZ ROSAS GUADALUPE</t>
+  </si>
+  <si>
+    <t>ROMR910205Q92</t>
+  </si>
+  <si>
+    <t>0317396</t>
+  </si>
+  <si>
+    <t>MORENO RODRIGUEZ MARIA DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>ROPL860327H69</t>
+  </si>
+  <si>
+    <t>0319321</t>
+  </si>
+  <si>
+    <t>PEREZ RODRIGUEZ LESLIE YURIDIA</t>
+  </si>
+  <si>
+    <t>RUAM8805318Y8</t>
+  </si>
+  <si>
+    <t>0317072</t>
+  </si>
+  <si>
+    <t>AGUILAR RUIZ MAGDA KARINA</t>
+  </si>
+  <si>
+    <t>SAJI880808U39</t>
+  </si>
+  <si>
+    <t>0318237</t>
+  </si>
+  <si>
+    <t>JIMENEZ SANTIZ ILEANA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>SIAR851213BA4</t>
+  </si>
+  <si>
+    <t>0319805</t>
+  </si>
+  <si>
+    <t>ALFARO SILVA RUTH MAYKELIN</t>
+  </si>
+  <si>
+    <t>SOFM800811KA5</t>
+  </si>
+  <si>
+    <t>0318291</t>
+  </si>
+  <si>
+    <t>FLORES SOSA MELINA ISABEL</t>
+  </si>
+  <si>
+    <t>SOGF841027PX0</t>
+  </si>
+  <si>
+    <t>0318275</t>
+  </si>
+  <si>
+    <t>GOMEZ SOLIS FLORIDALBA</t>
+  </si>
+  <si>
+    <t>SOGV920905ID6</t>
+  </si>
+  <si>
+    <t>0318292</t>
+  </si>
+  <si>
+    <t>GUILLEN SOTO VISLETH</t>
+  </si>
+  <si>
+    <t>SOTG820404747</t>
+  </si>
+  <si>
+    <t>0318272</t>
+  </si>
+  <si>
+    <t>TOVILLA SOLANO GLORIA ELENA</t>
+  </si>
+  <si>
+    <t>TOTE870404JB1</t>
+  </si>
+  <si>
+    <t>0317658</t>
+  </si>
+  <si>
+    <t>TOMAS TOMAS EULALIA ROBINA</t>
+  </si>
+  <si>
+    <t>TUAY910116HE5</t>
+  </si>
+  <si>
+    <t>0317597</t>
+  </si>
+  <si>
+    <t>AGUILAR TRUJILLO YESSICA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>TUBK821108VC6</t>
+  </si>
+  <si>
+    <t>0318338</t>
+  </si>
+  <si>
+    <t>BERMUDEZ TRUJILLO KARINA LIZETH</t>
+  </si>
+  <si>
+    <t>VAAC850123B58</t>
+  </si>
+  <si>
+    <t>0317622</t>
+  </si>
+  <si>
+    <t>AGUILAR VAZQUEZ CARINA</t>
+  </si>
+  <si>
+    <t>VAAF870924JT1</t>
+  </si>
+  <si>
+    <t>0320508</t>
+  </si>
+  <si>
+    <t>AGUILAR VAZQUEZ FRANCISCO FABIAN</t>
+  </si>
+  <si>
+    <t>VAHC831004U1A</t>
+  </si>
+  <si>
+    <t>0317627</t>
+  </si>
+  <si>
+    <t>HERNANDEZ VAZQUEZ CARMELA</t>
+  </si>
+  <si>
+    <t>VASL8803309V6</t>
+  </si>
+  <si>
+    <t>0318352</t>
+  </si>
+  <si>
+    <t>SANTIAGO VAZQUEZ MARIA LUCERO</t>
+  </si>
+  <si>
+    <t>VAZJ9702128V3</t>
+  </si>
+  <si>
+    <t>0317530</t>
+  </si>
+  <si>
+    <t>ZAMORANO VAZQUEZ JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>VEBL880224G4A</t>
+  </si>
+  <si>
+    <t>0317641</t>
+  </si>
+  <si>
+    <t>BALLINAS VENTURA LAURA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>VELO840829KJ3</t>
+  </si>
+  <si>
+    <t>0317549</t>
+  </si>
+  <si>
+    <t>LOPEZ VENTURA OLGA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>VEML920926KM6</t>
+  </si>
+  <si>
+    <t>0317552</t>
+  </si>
+  <si>
+    <t>MENDEZ VERDUGO LIZBETH GUADALUPE</t>
+  </si>
+  <si>
+    <t>VEVV770530AZ7</t>
+  </si>
+  <si>
+    <t>0317539</t>
+  </si>
+  <si>
+    <t>VAZQUEZ VELASCO VELLA NEY</t>
+  </si>
+  <si>
+    <t>VICL821127JR6</t>
+  </si>
+  <si>
+    <t>0319534</t>
+  </si>
+  <si>
+    <t>CITALAN VICTORIO LORIE MARILYN</t>
+  </si>
+  <si>
+    <t>VIHF890523RJ0</t>
+  </si>
+  <si>
+    <t>0317566</t>
+  </si>
+  <si>
+    <t>HERNANDEZ VILLATORO FABIOLA ALEJANDRA</t>
+  </si>
+  <si>
     <t>VIPE850920F24</t>
   </si>
   <si>
@@ -89,601 +1445,22 @@
     <t>M12009</t>
   </si>
   <si>
-    <t>HEGC910108649</t>
-  </si>
-  <si>
-    <t>0318397</t>
-  </si>
-  <si>
-    <t>GARCIA HERNANDEZ CECILIA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>MACT8805281J2</t>
-  </si>
-  <si>
-    <t>0316729</t>
-  </si>
-  <si>
-    <t>CASTELLANOS MARROQUIN TERESA LETICIA</t>
-  </si>
-  <si>
-    <t>GAGC941021CE3</t>
-  </si>
-  <si>
-    <t>0317973</t>
-  </si>
-  <si>
-    <t>GUILLEN GARCIA CIELO ARMINDA</t>
-  </si>
-  <si>
-    <t>AUAN881225AY6</t>
-  </si>
-  <si>
-    <t>0316379</t>
-  </si>
-  <si>
-    <t>AGUILAR AGUILAR NANCY MANUELA</t>
-  </si>
-  <si>
-    <t>JINE8301253W4</t>
-  </si>
-  <si>
-    <t>0316088</t>
-  </si>
-  <si>
-    <t>NANDAYAPA JIMENEZ ELVIRA DEL SOCORRO</t>
-  </si>
-  <si>
-    <t>GOGA910401SP5</t>
-  </si>
-  <si>
-    <t>0317797</t>
-  </si>
-  <si>
-    <t>GOMEZ GOMEZ JOSE ABRAHAM</t>
-  </si>
-  <si>
-    <t>DIGL881027RA0</t>
-  </si>
-  <si>
-    <t>0316125</t>
-  </si>
-  <si>
-    <t>GOMEZ DIAZ LILIA</t>
-  </si>
-  <si>
-    <t>SOFM800811KA5</t>
-  </si>
-  <si>
-    <t>0318291</t>
-  </si>
-  <si>
-    <t>FLORES SOSA MELINA ISABEL</t>
-  </si>
-  <si>
-    <t>OIPJ840121SQ5</t>
-  </si>
-  <si>
-    <t>0317659</t>
-  </si>
-  <si>
-    <t>PEREZ ORTIZ JOSEFA</t>
-  </si>
-  <si>
-    <t>HEVC860620TQ6</t>
-  </si>
-  <si>
-    <t>0318717</t>
-  </si>
-  <si>
-    <t>VELASCO HERNANDEZ CARMEN DEL ROSARIO</t>
-  </si>
-  <si>
-    <t>MEDICO ESPECIALISTA HOSPITAL</t>
-  </si>
-  <si>
-    <t>M11001</t>
-  </si>
-  <si>
-    <t>GARN860511TI4</t>
-  </si>
-  <si>
-    <t>0318827</t>
-  </si>
-  <si>
-    <t>RUIZ GARCIA NALLELY GUADALUPE</t>
-  </si>
-  <si>
-    <t>LOSE810228GFA</t>
-  </si>
-  <si>
-    <t>0317250</t>
-  </si>
-  <si>
-    <t>SANTIAGO LOPEZ EZEQUIEL</t>
-  </si>
-  <si>
-    <t>LOHA930402EKA</t>
-  </si>
-  <si>
-    <t>0317334</t>
-  </si>
-  <si>
-    <t>HERNANDEZ LOPEZ ADAN</t>
-  </si>
-  <si>
-    <t>GOMD8409067E0</t>
-  </si>
-  <si>
-    <t>0316048</t>
-  </si>
-  <si>
-    <t>MORALES GORDILLO DENICE DEL CARMEN</t>
-  </si>
-  <si>
-    <t>COCINERO</t>
-  </si>
-  <si>
-    <t>M12020</t>
-  </si>
-  <si>
-    <t>CICM870316AF9</t>
-  </si>
-  <si>
-    <t>0316106</t>
-  </si>
-  <si>
-    <t>CABRERA CIFUENTES MONICA YAZMIN</t>
-  </si>
-  <si>
-    <t>MOGD910806Q26</t>
-  </si>
-  <si>
-    <t>0317136</t>
-  </si>
-  <si>
-    <t>GUILLEN MORENO DEYVI ELIZABETH</t>
-  </si>
-  <si>
-    <t>SOGF841027PX0</t>
-  </si>
-  <si>
-    <t>0318275</t>
-  </si>
-  <si>
-    <t>GOMEZ SOLIS FLORIDALBA</t>
-  </si>
-  <si>
-    <t>AAMG881028FB9</t>
-  </si>
-  <si>
-    <t>0316452</t>
-  </si>
-  <si>
-    <t>MORALES ALFARO GABRIELA DEL ROSARIO</t>
-  </si>
-  <si>
-    <t>FOAL860927V50</t>
-  </si>
-  <si>
-    <t>0319420</t>
-  </si>
-  <si>
-    <t>AGUILAR FLORES JOSE LUIS</t>
-  </si>
-  <si>
-    <t>MEDICO GENERAL</t>
-  </si>
-  <si>
-    <t>M11002</t>
-  </si>
-  <si>
-    <t>MALG920304GI0</t>
-  </si>
-  <si>
-    <t>0317109</t>
-  </si>
-  <si>
-    <t>LOPEZ MAZARIEGOS GABRIELA</t>
-  </si>
-  <si>
-    <t>RUAM8805318Y8</t>
-  </si>
-  <si>
-    <t>0317072</t>
-  </si>
-  <si>
-    <t>AGUILAR RUIZ MAGDA KARINA</t>
-  </si>
-  <si>
-    <t>BACG821015TI2</t>
-  </si>
-  <si>
-    <t>0316562</t>
-  </si>
-  <si>
-    <t>CARRILLO BARRIOS GADI ESVEY</t>
-  </si>
-  <si>
-    <t>HEAC851019UB8</t>
-  </si>
-  <si>
-    <t>0316590</t>
-  </si>
-  <si>
-    <t>DE ARCIA HERNANDEZ MARIA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>MODC860506KUA</t>
-  </si>
-  <si>
-    <t>0320153</t>
-  </si>
-  <si>
-    <t>DIAZ MORALES CHRISTIAN SOLEDAD</t>
-  </si>
-  <si>
-    <t>QUIMICO CLINICO</t>
-  </si>
-  <si>
-    <t>M12008</t>
-  </si>
-  <si>
-    <t>MACY860419PE9</t>
-  </si>
-  <si>
-    <t>0317106</t>
-  </si>
-  <si>
-    <t>CASTILLO MARTINEZ YOELI VERENICE</t>
-  </si>
-  <si>
-    <t>GUHA910903HF8</t>
-  </si>
-  <si>
-    <t>0317839</t>
-  </si>
-  <si>
-    <t>HERNANDEZ GUILLEN ALICIA IVONNE</t>
-  </si>
-  <si>
-    <t>FOMS9101317C2</t>
-  </si>
-  <si>
-    <t>0317317</t>
-  </si>
-  <si>
-    <t>MARTINEZ FLORES SONIA DEL ROSARIO</t>
-  </si>
-  <si>
-    <t>ROLG820219K33</t>
-  </si>
-  <si>
-    <t>0317382</t>
-  </si>
-  <si>
-    <t>LOPEZ ROSAS GUADALUPE</t>
-  </si>
-  <si>
-    <t>CAMI921119GH4</t>
-  </si>
-  <si>
-    <t>0316099</t>
-  </si>
-  <si>
-    <t>MORALES CALVO IRIS ROXANA</t>
-  </si>
-  <si>
-    <t>EILM891127TE4</t>
-  </si>
-  <si>
-    <t>0317938</t>
-  </si>
-  <si>
-    <t>LOPEZ ESPINOZA MARIFLOR</t>
-  </si>
-  <si>
-    <t>VAAC850123B58</t>
-  </si>
-  <si>
-    <t>0317622</t>
-  </si>
-  <si>
-    <t>AGUILAR VAZQUEZ CARINA</t>
-  </si>
-  <si>
-    <t>GUMC811122PK6</t>
-  </si>
-  <si>
-    <t>0317908</t>
-  </si>
-  <si>
-    <t>MORALES GUTIERREZ CECILIA</t>
-  </si>
-  <si>
-    <t>NAPJ870603MA9</t>
-  </si>
-  <si>
-    <t>0320383</t>
-  </si>
-  <si>
-    <t>PEREZ NAJERA JOSE</t>
-  </si>
-  <si>
-    <t>TECNICO RADIOLOGO</t>
-  </si>
-  <si>
-    <t>M12014</t>
-  </si>
-  <si>
-    <t>TOTE870404JB1</t>
-  </si>
-  <si>
-    <t>0317658</t>
-  </si>
-  <si>
-    <t>TOMAS TOMAS EULALIA ROBINA</t>
-  </si>
-  <si>
-    <t>BAGB8411206J5</t>
-  </si>
-  <si>
-    <t>0316567</t>
-  </si>
-  <si>
-    <t>GONZALEZ BARTOLOME BIANCA VANESSA</t>
-  </si>
-  <si>
-    <t>PEGL920114T21</t>
-  </si>
-  <si>
-    <t>0320131</t>
-  </si>
-  <si>
-    <t>GORDILLO PENAGOS LAURA NALLELY</t>
-  </si>
-  <si>
-    <t>HERO800403FHA</t>
-  </si>
-  <si>
-    <t>0318669</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ HERNANDEZ OFELIA DEL ROSARIO</t>
-  </si>
-  <si>
-    <t>MALR890830C30</t>
-  </si>
-  <si>
-    <t>0317112</t>
-  </si>
-  <si>
-    <t>LOPEZ MALDONADO MARIA DEL ROSARIO</t>
-  </si>
-  <si>
-    <t>MAML8106089U5</t>
-  </si>
-  <si>
-    <t>0319209</t>
-  </si>
-  <si>
-    <t>MAYORGA MATADAMAS LUIS ALBERTO</t>
-  </si>
-  <si>
-    <t>VEVV770530AZ7</t>
-  </si>
-  <si>
-    <t>0317539</t>
-  </si>
-  <si>
-    <t>VAZQUEZ VELASCO VELLA NEY</t>
-  </si>
-  <si>
-    <t>GOAL8903113B4</t>
-  </si>
-  <si>
-    <t>0318043</t>
-  </si>
-  <si>
-    <t>ARRAZATE GORDILLO LORENA DEL ROCIO</t>
-  </si>
-  <si>
-    <t>ROHM890516T19</t>
-  </si>
-  <si>
-    <t>0320492</t>
-  </si>
-  <si>
-    <t>HIDALGO RODRIGUEZ MAYELA GUADALUPE</t>
-  </si>
-  <si>
-    <t>TRABAJADORA SOCIAL</t>
-  </si>
-  <si>
-    <t>M12021</t>
-  </si>
-  <si>
-    <t>AARR890827QS3</t>
-  </si>
-  <si>
-    <t>0316493</t>
-  </si>
-  <si>
-    <t>RUIZ ANZA RODULFO</t>
-  </si>
-  <si>
-    <t>DOGA820313SM2</t>
-  </si>
-  <si>
-    <t>0316084</t>
-  </si>
-  <si>
-    <t>GOMEZ DOMINGUEZ ANTONIO</t>
-  </si>
-  <si>
-    <t>HESA8001202A2</t>
-  </si>
-  <si>
-    <t>0318409</t>
-  </si>
-  <si>
-    <t>SANDOVAL HERNANDEZ JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>AUHR910426U60</t>
-  </si>
-  <si>
-    <t>0316388</t>
-  </si>
-  <si>
-    <t>HERNANDEZ AGUILAR ROBERTO</t>
-  </si>
-  <si>
-    <t>AAPJ860506LP8</t>
-  </si>
-  <si>
-    <t>0319897</t>
-  </si>
-  <si>
-    <t>PEREZ ABADIA MARIA JUDITH</t>
-  </si>
-  <si>
-    <t>NUTRICIONISTA DIETISTA</t>
-  </si>
-  <si>
-    <t>M12010</t>
-  </si>
-  <si>
-    <t>MACA880305EL6</t>
-  </si>
-  <si>
-    <t>0317104</t>
-  </si>
-  <si>
-    <t>CASTILLO MARTINEZ ANA SILVIA</t>
-  </si>
-  <si>
-    <t>COMB861203UP7</t>
-  </si>
-  <si>
-    <t>0318918</t>
-  </si>
-  <si>
-    <t>MOLINA COELLO BELEN CANDELARIA</t>
-  </si>
-  <si>
-    <t>CUSA900505HR3</t>
-  </si>
-  <si>
-    <t>0320317</t>
-  </si>
-  <si>
-    <t>SANGUINO DE LA CRUZ ARNULFO</t>
-  </si>
-  <si>
-    <t>MOHV8912272B9</t>
-  </si>
-  <si>
-    <t>0316809</t>
-  </si>
-  <si>
-    <t>HERRERA MORALES VERONICA GUADALUPE</t>
-  </si>
-  <si>
-    <t>RALP850623JF0</t>
-  </si>
-  <si>
-    <t>0319312</t>
-  </si>
-  <si>
-    <t>LOPEZ RAMOS PARIS ALBERTO</t>
-  </si>
-  <si>
-    <t>LOAL890525L22</t>
-  </si>
-  <si>
-    <t>0318572</t>
-  </si>
-  <si>
-    <t>AGUILAR LOPEZ LAURA GUADALUPE</t>
-  </si>
-  <si>
-    <t>ENFERMERA ESPECIALISTA</t>
-  </si>
-  <si>
-    <t>M12001</t>
-  </si>
-  <si>
-    <t>RAHB891219951</t>
-  </si>
-  <si>
-    <t>0317370</t>
-  </si>
-  <si>
-    <t>HERNANDEZ RAMIREZ BEATRIZ ADRIANA</t>
-  </si>
-  <si>
-    <t>LOLT910506562</t>
-  </si>
-  <si>
-    <t>0317240</t>
-  </si>
-  <si>
-    <t>LOPEZ LOPEZ TREISY MARIELA</t>
-  </si>
-  <si>
-    <t>AUAB850511JZA</t>
-  </si>
-  <si>
-    <t>0319899</t>
-  </si>
-  <si>
-    <t>ARREOLA AHUMADA BERENICE</t>
-  </si>
-  <si>
-    <t>GOMY830809953</t>
-  </si>
-  <si>
-    <t>0319947</t>
-  </si>
-  <si>
-    <t>MORALES GONZALEZ YESENIA MARGARITA</t>
-  </si>
-  <si>
-    <t>GOPS910801HP3</t>
-  </si>
-  <si>
-    <t>0318001</t>
-  </si>
-  <si>
-    <t>PEREZ GOMEZ SANDRA YANETH</t>
-  </si>
-  <si>
-    <t>CULP921220IT6</t>
-  </si>
-  <si>
-    <t>0316117</t>
-  </si>
-  <si>
-    <t>LOPEZ CRUZ PAOLA GUADALUPE</t>
-  </si>
-  <si>
-    <t>AUHT8901108H8</t>
-  </si>
-  <si>
-    <t>0316391</t>
-  </si>
-  <si>
-    <t>HERNANDEZ AGUILAR JOSE TRINIDAD</t>
-  </si>
-  <si>
-    <t>CAGL890128QE5</t>
-  </si>
-  <si>
-    <t>0316093</t>
-  </si>
-  <si>
-    <t>GARCIA CALVO LUCERO</t>
+    <t>VIPP9102232W2</t>
+  </si>
+  <si>
+    <t>0318809</t>
+  </si>
+  <si>
+    <t>PORTILLO VILLATORO PAOLA GUADALUPE</t>
+  </si>
+  <si>
+    <t>ZAPG861230AF6</t>
+  </si>
+  <si>
+    <t>0320188</t>
+  </si>
+  <si>
+    <t>PEREZ ZAMBRANO GUSTAVO ARMANDO</t>
   </si>
   <si>
     <t>ZAVY890620EB7</t>
@@ -695,288 +1472,6 @@
     <t>VAZQUEZ ZAMORANO YESENIA DEL CARMEN</t>
   </si>
   <si>
-    <t>ZAPG861230AF6</t>
-  </si>
-  <si>
-    <t>0320188</t>
-  </si>
-  <si>
-    <t>PEREZ ZAMBRANO GUSTAVO ARMANDO</t>
-  </si>
-  <si>
-    <t>GATN940213DM9</t>
-  </si>
-  <si>
-    <t>0317761</t>
-  </si>
-  <si>
-    <t>TOVAR GARCIA NELLY VALENTINA</t>
-  </si>
-  <si>
-    <t>VEML920926KM6</t>
-  </si>
-  <si>
-    <t>0317552</t>
-  </si>
-  <si>
-    <t>MENDEZ VERDUGO LIZBETH GUADALUPE</t>
-  </si>
-  <si>
-    <t>EIME900522P11</t>
-  </si>
-  <si>
-    <t>0317929</t>
-  </si>
-  <si>
-    <t>MALDONADO ESPINOSA MARIA ESTHER</t>
-  </si>
-  <si>
-    <t>MARI9112061Y1</t>
-  </si>
-  <si>
-    <t>0316738</t>
-  </si>
-  <si>
-    <t>RODAS MARTINEZ IRIS FABIOLA</t>
-  </si>
-  <si>
-    <t>EADY900927TN7</t>
-  </si>
-  <si>
-    <t>0317950</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ ESTRADA YESSICA LIZBETH</t>
-  </si>
-  <si>
-    <t>EIVD910718520</t>
-  </si>
-  <si>
-    <t>0320301</t>
-  </si>
-  <si>
-    <t>VIVES ESPINOSA DAFFNE ANAID</t>
-  </si>
-  <si>
-    <t>TECNICO LABORATORISTA</t>
-  </si>
-  <si>
-    <t>M12013</t>
-  </si>
-  <si>
-    <t>CAFD861007NS5</t>
-  </si>
-  <si>
-    <t>0319467</t>
-  </si>
-  <si>
-    <t>FIGUEROA CHAVEZ DAMARIS YOHAIRA</t>
-  </si>
-  <si>
-    <t>VELO840829KJ3</t>
-  </si>
-  <si>
-    <t>0317549</t>
-  </si>
-  <si>
-    <t>LOPEZ VENTURA OLGA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>VAZJ9702128V3</t>
-  </si>
-  <si>
-    <t>0317530</t>
-  </si>
-  <si>
-    <t>ZAMORANO VAZQUEZ JUAN CARLOS</t>
-  </si>
-  <si>
-    <t>LOAL850121RL4</t>
-  </si>
-  <si>
-    <t>0315853</t>
-  </si>
-  <si>
-    <t>ALVARADO LOPEZ LORENA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>AUXILIAR DE ENFERMERIA</t>
-  </si>
-  <si>
-    <t>M12003</t>
-  </si>
-  <si>
-    <t>MOMP871118IZ5</t>
-  </si>
-  <si>
-    <t>0316803</t>
-  </si>
-  <si>
-    <t>MENESES MONTELONGO PERLA PATRICIA</t>
-  </si>
-  <si>
-    <t>GOAY9306137I5</t>
-  </si>
-  <si>
-    <t>0318384</t>
-  </si>
-  <si>
-    <t>AGUILAR GONZALEZ YULIANA ANTONIETA</t>
-  </si>
-  <si>
-    <t>MOAS870512HG3</t>
-  </si>
-  <si>
-    <t>0320152</t>
-  </si>
-  <si>
-    <t>ABADIA MONJARAS SANDRA NAYELI</t>
-  </si>
-  <si>
-    <t>MASA910723KC5</t>
-  </si>
-  <si>
-    <t>0317115</t>
-  </si>
-  <si>
-    <t>SANTIAGO MALDONADO ANA KARINA</t>
-  </si>
-  <si>
-    <t>VIPP9102232W2</t>
-  </si>
-  <si>
-    <t>0318809</t>
-  </si>
-  <si>
-    <t>PORTILLO VILLATORO PAOLA GUADALUPE</t>
-  </si>
-  <si>
-    <t>LODC860503DS5</t>
-  </si>
-  <si>
-    <t>0317265</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ LOPEZ CRUSY YERALDIN</t>
-  </si>
-  <si>
-    <t>DIVD8301206C2</t>
-  </si>
-  <si>
-    <t>0320079</t>
-  </si>
-  <si>
-    <t>VELAZQUEZ DIAZ DIANA LIZETH</t>
-  </si>
-  <si>
-    <t>RELI930226AL0</t>
-  </si>
-  <si>
-    <t>0316079</t>
-  </si>
-  <si>
-    <t>LARA REYES ILSE ABRIL</t>
-  </si>
-  <si>
-    <t>AUHA860416U95</t>
-  </si>
-  <si>
-    <t>0319898</t>
-  </si>
-  <si>
-    <t>HERNANDEZ AGUILAR AURORA GUADALUPE</t>
-  </si>
-  <si>
-    <t>LEVB821209182</t>
-  </si>
-  <si>
-    <t>0317326</t>
-  </si>
-  <si>
-    <t>VENTURA LEON BELLANI</t>
-  </si>
-  <si>
-    <t>NAPA950427E12</t>
-  </si>
-  <si>
-    <t>0318091</t>
-  </si>
-  <si>
-    <t>PEREZ NAVARRO ANA GLORIA</t>
-  </si>
-  <si>
-    <t>GOSD920622LX4</t>
-  </si>
-  <si>
-    <t>0317798</t>
-  </si>
-  <si>
-    <t>SANTIAGO GONZALEZ DAMARIS YULIAN</t>
-  </si>
-  <si>
-    <t>MARG910221US4</t>
-  </si>
-  <si>
-    <t>0316728</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ MARROQUIN GUILIANEY</t>
-  </si>
-  <si>
-    <t>COAP861030NU1</t>
-  </si>
-  <si>
-    <t>0318954</t>
-  </si>
-  <si>
-    <t>AGUILAR CORDOVA PAOLA BERENICE</t>
-  </si>
-  <si>
-    <t>DOMK890610DU2</t>
-  </si>
-  <si>
-    <t>0316135</t>
-  </si>
-  <si>
-    <t>MORALES DOMINGUEZ KARINA</t>
-  </si>
-  <si>
-    <t>MOAS890130JM2</t>
-  </si>
-  <si>
-    <t>0318501</t>
-  </si>
-  <si>
-    <t>ARMAS MORALES SERGIO MARTIN</t>
-  </si>
-  <si>
-    <t>MOLR880616IW1</t>
-  </si>
-  <si>
-    <t>0317141</t>
-  </si>
-  <si>
-    <t>LUNA MORALES ROXANA PATRICIA</t>
-  </si>
-  <si>
-    <t>VIHF890523RJ0</t>
-  </si>
-  <si>
-    <t>0317566</t>
-  </si>
-  <si>
-    <t>HERNANDEZ VILLATORO FABIOLA ALEJANDRA</t>
-  </si>
-  <si>
-    <t>AUPC840925UY6</t>
-  </si>
-  <si>
-    <t>0319058</t>
-  </si>
-  <si>
-    <t>PINTO AGUILAR CAROLINA</t>
-  </si>
-  <si>
     <t>ZUSA8704199P9</t>
   </si>
   <si>
@@ -984,501 +1479,6 @@
   </si>
   <si>
     <t>SANCHEZ ZUÑIGA ADRIANA JACQUELINE</t>
-  </si>
-  <si>
-    <t>VAHC831004U1A</t>
-  </si>
-  <si>
-    <t>0317627</t>
-  </si>
-  <si>
-    <t>HERNANDEZ VAZQUEZ CARMELA</t>
-  </si>
-  <si>
-    <t>ROHC891104PL1</t>
-  </si>
-  <si>
-    <t>0319453</t>
-  </si>
-  <si>
-    <t>HERRERA ROMAN CARLOS LENIN</t>
-  </si>
-  <si>
-    <t>MEGM9009268C0</t>
-  </si>
-  <si>
-    <t>0316771</t>
-  </si>
-  <si>
-    <t>GARCIA MENDEZ MARICELA</t>
-  </si>
-  <si>
-    <t>CAMJ9112231W6</t>
-  </si>
-  <si>
-    <t>0318662</t>
-  </si>
-  <si>
-    <t>MORALES CABRERA JANETH ESELY</t>
-  </si>
-  <si>
-    <t>REPI870227RH4</t>
-  </si>
-  <si>
-    <t>0320146</t>
-  </si>
-  <si>
-    <t>PEREZ REZA ISIS GUADALUPE</t>
-  </si>
-  <si>
-    <t>TUBK821108VC6</t>
-  </si>
-  <si>
-    <t>0318338</t>
-  </si>
-  <si>
-    <t>BERMUDEZ TRUJILLO KARINA LIZETH</t>
-  </si>
-  <si>
-    <t>RAGG890406IP4</t>
-  </si>
-  <si>
-    <t>0317391</t>
-  </si>
-  <si>
-    <t>GORDILLO RAMIREZ GRISELDA CAROLINA</t>
-  </si>
-  <si>
-    <t>GAAD85093076A</t>
-  </si>
-  <si>
-    <t>0317867</t>
-  </si>
-  <si>
-    <t>ARGUELLO GARCIA DORA</t>
-  </si>
-  <si>
-    <t>MOCA880818NF6</t>
-  </si>
-  <si>
-    <t>0317133</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ MONTESINOS ANGELICA</t>
-  </si>
-  <si>
-    <t>GUSC8605071A1</t>
-  </si>
-  <si>
-    <t>0317801</t>
-  </si>
-  <si>
-    <t>SANCHEZ GUZMAN CECILIA GUADALUPE</t>
-  </si>
-  <si>
-    <t>NILO840817GDA</t>
-  </si>
-  <si>
-    <t>0318865</t>
-  </si>
-  <si>
-    <t>LOPEZ NIETO OSCAR FERNANDO</t>
-  </si>
-  <si>
-    <t>HELR900727V17</t>
-  </si>
-  <si>
-    <t>0318403</t>
-  </si>
-  <si>
-    <t>LOPEZ HERNANDEZ RAFAEL</t>
-  </si>
-  <si>
-    <t>MALT8905294T3</t>
-  </si>
-  <si>
-    <t>0316745</t>
-  </si>
-  <si>
-    <t>LOPEZ MARTINEZ TERESA DE JESUS</t>
-  </si>
-  <si>
-    <t>VICL821127JR6</t>
-  </si>
-  <si>
-    <t>0319534</t>
-  </si>
-  <si>
-    <t>CITALAN VICTORIO LORIE MARILYN</t>
-  </si>
-  <si>
-    <t>JIOL8909287F4</t>
-  </si>
-  <si>
-    <t>0318670</t>
-  </si>
-  <si>
-    <t>ORTEGA JIMENEZ LUIS MAURICIO</t>
-  </si>
-  <si>
-    <t>LOHL881120C79</t>
-  </si>
-  <si>
-    <t>0317271</t>
-  </si>
-  <si>
-    <t>HERNANDEZ LOPEZ LUCERO</t>
-  </si>
-  <si>
-    <t>ROGA781030JW9</t>
-  </si>
-  <si>
-    <t>0315832</t>
-  </si>
-  <si>
-    <t>GOMEZ RODAS MARIA DE LOS ANGELES</t>
-  </si>
-  <si>
-    <t>COPA930123UC8</t>
-  </si>
-  <si>
-    <t>0318440</t>
-  </si>
-  <si>
-    <t>PEREZ CORDERO ANA ELIZABETH</t>
-  </si>
-  <si>
-    <t>GUMJ860103TZ8</t>
-  </si>
-  <si>
-    <t>0317843</t>
-  </si>
-  <si>
-    <t>MAZARIEGOS GUTIERREZ JUANA ISABEL</t>
-  </si>
-  <si>
-    <t>AUGN9110298H3</t>
-  </si>
-  <si>
-    <t>0316383</t>
-  </si>
-  <si>
-    <t>GARCIA AGUILAR NERY ENRIQUE</t>
-  </si>
-  <si>
-    <t>VASL8803309V6</t>
-  </si>
-  <si>
-    <t>0318352</t>
-  </si>
-  <si>
-    <t>SANTIAGO VAZQUEZ MARIA LUCERO</t>
-  </si>
-  <si>
-    <t>GUCF891215J20</t>
-  </si>
-  <si>
-    <t>0320206</t>
-  </si>
-  <si>
-    <t>CABALLERO GUILLEN JOSE FERNANDO</t>
-  </si>
-  <si>
-    <t>LOAM791111988</t>
-  </si>
-  <si>
-    <t>0316005</t>
-  </si>
-  <si>
-    <t>AGUILAR LOPEZ MARTHA ELENA</t>
-  </si>
-  <si>
-    <t>SAJI880808U39</t>
-  </si>
-  <si>
-    <t>0318237</t>
-  </si>
-  <si>
-    <t>JIMENEZ SANTIZ ILEANA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>SOTG820404747</t>
-  </si>
-  <si>
-    <t>0318272</t>
-  </si>
-  <si>
-    <t>TOVILLA SOLANO GLORIA ELENA</t>
-  </si>
-  <si>
-    <t>NALC921026IM6</t>
-  </si>
-  <si>
-    <t>0318080</t>
-  </si>
-  <si>
-    <t>LOPEZ NAJERA CLAUDIA ELIZABETH</t>
-  </si>
-  <si>
-    <t>AUVM860612LI0</t>
-  </si>
-  <si>
-    <t>0320419</t>
-  </si>
-  <si>
-    <t>VAZQUEZ AGUILAR MARISELA</t>
-  </si>
-  <si>
-    <t>AUAD900905AY4</t>
-  </si>
-  <si>
-    <t>0319901</t>
-  </si>
-  <si>
-    <t>AGUILAR ARGUELLO DOLORES ALEJANDRA</t>
-  </si>
-  <si>
-    <t>LOHA881020EK5</t>
-  </si>
-  <si>
-    <t>0319398</t>
-  </si>
-  <si>
-    <t>HERNANDEZ LOPEZ ALEJANDRA NINETH</t>
-  </si>
-  <si>
-    <t>LOPP900629ET2</t>
-  </si>
-  <si>
-    <t>0316601</t>
-  </si>
-  <si>
-    <t>PEREZ LOPEZ PATRICIA GUADALUPE</t>
-  </si>
-  <si>
-    <t>SOGV920905ID6</t>
-  </si>
-  <si>
-    <t>0318292</t>
-  </si>
-  <si>
-    <t>GUILLEN SOTO VISLETH</t>
-  </si>
-  <si>
-    <t>VAAF870924JT1</t>
-  </si>
-  <si>
-    <t>0320508</t>
-  </si>
-  <si>
-    <t>AGUILAR VAZQUEZ FRANCISCO FABIAN</t>
-  </si>
-  <si>
-    <t>AOMA820421JX0</t>
-  </si>
-  <si>
-    <t>0319068</t>
-  </si>
-  <si>
-    <t>MORENO ALBORES ALBA NOEMI</t>
-  </si>
-  <si>
-    <t>MOTG8311269U1</t>
-  </si>
-  <si>
-    <t>0319363</t>
-  </si>
-  <si>
-    <t>TOALA MOLANO GABRIELA YAZMIN</t>
-  </si>
-  <si>
-    <t>GOMA9005306C5</t>
-  </si>
-  <si>
-    <t>0318042</t>
-  </si>
-  <si>
-    <t>MORALES GORDILLO ALMENDRA KARINA</t>
-  </si>
-  <si>
-    <t>MOMS9103137K6</t>
-  </si>
-  <si>
-    <t>0318425</t>
-  </si>
-  <si>
-    <t>MORALES MONJARAZ SUSANA ELIZABETH</t>
-  </si>
-  <si>
-    <t>VEBL880224G4A</t>
-  </si>
-  <si>
-    <t>0317641</t>
-  </si>
-  <si>
-    <t>BALLINAS VENTURA LAURA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>GOLJ9008017N4</t>
-  </si>
-  <si>
-    <t>0319637</t>
-  </si>
-  <si>
-    <t>LOPEZ GORDILLO JULIO ALEJANDRO</t>
-  </si>
-  <si>
-    <t>GAMC890620M51</t>
-  </si>
-  <si>
-    <t>0317804</t>
-  </si>
-  <si>
-    <t>MORALES GARCIA CLAUDIA ELIZABETH</t>
-  </si>
-  <si>
-    <t>EIGN910101TB8</t>
-  </si>
-  <si>
-    <t>0318383</t>
-  </si>
-  <si>
-    <t>GARCIA ESPINOSA NANCI ELIZABETH</t>
-  </si>
-  <si>
-    <t>ROMR910205Q92</t>
-  </si>
-  <si>
-    <t>0317396</t>
-  </si>
-  <si>
-    <t>MORENO RODRIGUEZ MARIA DEL ROSARIO</t>
-  </si>
-  <si>
-    <t>AUPV8512074M8</t>
-  </si>
-  <si>
-    <t>0320266</t>
-  </si>
-  <si>
-    <t>PULIDO ARGUELLO VIRGINIA GUADALUPE</t>
-  </si>
-  <si>
-    <t>AOMY831206AS5</t>
-  </si>
-  <si>
-    <t>0319077</t>
-  </si>
-  <si>
-    <t>MALDONADO ALFONZO YANET DEL ROCIO</t>
-  </si>
-  <si>
-    <t>TUAY910116HE5</t>
-  </si>
-  <si>
-    <t>0317597</t>
-  </si>
-  <si>
-    <t>AGUILAR TRUJILLO YESSICA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>GOGG890227M4A</t>
-  </si>
-  <si>
-    <t>0317772</t>
-  </si>
-  <si>
-    <t>GOMEZ GOMEZ GABRIELA</t>
-  </si>
-  <si>
-    <t>PUML900804AX3</t>
-  </si>
-  <si>
-    <t>0317010</t>
-  </si>
-  <si>
-    <t>MONJARAS PULIDO LESVIA ISABEL</t>
-  </si>
-  <si>
-    <t>MEAJ9012135ZA</t>
-  </si>
-  <si>
-    <t>0320449</t>
-  </si>
-  <si>
-    <t>AGUILAR MENDEZ JENNI JOCABETH</t>
-  </si>
-  <si>
-    <t>JUCV820911LU6</t>
-  </si>
-  <si>
-    <t>0320404</t>
-  </si>
-  <si>
-    <t>CRUZ JUAREZ VICENTE</t>
-  </si>
-  <si>
-    <t>HEVC871025FE1</t>
-  </si>
-  <si>
-    <t>0316147</t>
-  </si>
-  <si>
-    <t>VAZQUEZ HERNANDEZ CLARIVEL</t>
-  </si>
-  <si>
-    <t>HEVS840312LK7</t>
-  </si>
-  <si>
-    <t>0320255</t>
-  </si>
-  <si>
-    <t>VAZQUEZ HERNANDEZ SERGIO FERMIN</t>
-  </si>
-  <si>
-    <t>AULD900731945</t>
-  </si>
-  <si>
-    <t>0316392</t>
-  </si>
-  <si>
-    <t>LOPEZ AGUILAR DANIEL DE JESUS</t>
-  </si>
-  <si>
-    <t>ROPL860327H69</t>
-  </si>
-  <si>
-    <t>0319321</t>
-  </si>
-  <si>
-    <t>PEREZ RODRIGUEZ LESLIE YURIDIA</t>
-  </si>
-  <si>
-    <t>AARE870705D75</t>
-  </si>
-  <si>
-    <t>0316440</t>
-  </si>
-  <si>
-    <t>RINCON ALCAZAR ERIKA JUDITH</t>
-  </si>
-  <si>
-    <t>MOEN880801H60</t>
-  </si>
-  <si>
-    <t>0317134</t>
-  </si>
-  <si>
-    <t>ESPINOSA MORENO NERY DEL CARMEN</t>
-  </si>
-  <si>
-    <t>SIAR851213BA4</t>
-  </si>
-  <si>
-    <t>0319805</t>
-  </si>
-  <si>
-    <t>ALFARO SILVA RUTH MAYKELIN</t>
   </si>
 </sst>
 </file>
@@ -1897,7 +1897,7 @@
         <v>15</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1920,13 +1920,13 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1940,19 +1940,19 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -2007,10 +2007,10 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -2027,22 +2027,22 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2056,19 +2056,19 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2085,22 +2085,22 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2114,13 +2114,13 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -2143,13 +2143,13 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -2172,19 +2172,19 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2201,13 +2201,13 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
@@ -2230,22 +2230,22 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2268,13 +2268,13 @@
         <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2297,10 +2297,10 @@
         <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -2326,10 +2326,10 @@
         <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2346,22 +2346,22 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2375,13 +2375,13 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
@@ -2404,13 +2404,13 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s">
         <v>14</v>
@@ -2433,19 +2433,19 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2462,13 +2462,13 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
@@ -2477,7 +2477,7 @@
         <v>15</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2491,19 +2491,19 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2529,10 +2529,10 @@
         <v>89</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2549,13 +2549,13 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
@@ -2564,7 +2564,7 @@
         <v>15</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2578,22 +2578,22 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2607,22 +2607,22 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2636,22 +2636,22 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F28" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G28" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2665,13 +2665,13 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F29" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
@@ -2680,7 +2680,7 @@
         <v>15</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2694,19 +2694,19 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2723,13 +2723,13 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F31" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
@@ -2738,7 +2738,7 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2752,19 +2752,19 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F32" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -2781,13 +2781,13 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F33" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G33" t="s">
         <v>14</v>
@@ -2810,13 +2810,13 @@
         <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F34" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
@@ -2825,7 +2825,7 @@
         <v>15</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2839,13 +2839,13 @@
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F35" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G35" t="s">
         <v>14</v>
@@ -2868,13 +2868,13 @@
         <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F36" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
@@ -2883,7 +2883,7 @@
         <v>15</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2897,22 +2897,22 @@
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F37" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G37" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2926,13 +2926,13 @@
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F38" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G38" t="s">
         <v>14</v>
@@ -2955,13 +2955,13 @@
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F39" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G39" t="s">
         <v>14</v>
@@ -2984,19 +2984,19 @@
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E40" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F40" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G40" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="H40" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -3013,19 +3013,19 @@
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F41" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G41" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H41" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -3042,13 +3042,13 @@
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E42" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F42" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G42" t="s">
         <v>14</v>
@@ -3057,7 +3057,7 @@
         <v>15</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3071,22 +3071,22 @@
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F43" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G43" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3100,13 +3100,13 @@
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E44" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F44" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G44" t="s">
         <v>14</v>
@@ -3129,13 +3129,13 @@
         <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E45" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F45" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G45" t="s">
         <v>14</v>
@@ -3144,7 +3144,7 @@
         <v>15</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -3158,19 +3158,19 @@
         <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E46" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F46" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G46" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -3187,13 +3187,13 @@
         <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E47" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F47" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G47" t="s">
         <v>14</v>
@@ -3202,7 +3202,7 @@
         <v>15</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3216,13 +3216,13 @@
         <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E48" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F48" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G48" t="s">
         <v>14</v>
@@ -3231,7 +3231,7 @@
         <v>15</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3245,13 +3245,13 @@
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E49" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F49" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G49" t="s">
         <v>14</v>
@@ -3260,7 +3260,7 @@
         <v>15</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3274,13 +3274,13 @@
         <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E50" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F50" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G50" t="s">
         <v>14</v>
@@ -3303,22 +3303,22 @@
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E51" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F51" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G51" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3341,13 +3341,13 @@
         <v>181</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H52" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3370,10 +3370,10 @@
         <v>184</v>
       </c>
       <c r="G53" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="I53">
         <v>2</v>
@@ -3399,13 +3399,13 @@
         <v>187</v>
       </c>
       <c r="G54" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="H54" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3419,19 +3419,19 @@
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E55" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F55" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I55">
         <v>2</v>
@@ -3448,19 +3448,19 @@
         <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E56" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F56" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G56" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -3477,19 +3477,19 @@
         <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E57" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F57" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G57" t="s">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -3515,13 +3515,13 @@
         <v>201</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="H58" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3573,10 +3573,10 @@
         <v>207</v>
       </c>
       <c r="G60" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -3602,13 +3602,13 @@
         <v>210</v>
       </c>
       <c r="G61" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3637,7 +3637,7 @@
         <v>15</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3666,7 +3666,7 @@
         <v>15</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3695,7 +3695,7 @@
         <v>15</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3724,7 +3724,7 @@
         <v>15</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3747,13 +3747,13 @@
         <v>225</v>
       </c>
       <c r="G66" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3776,13 +3776,13 @@
         <v>228</v>
       </c>
       <c r="G67" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3805,13 +3805,13 @@
         <v>231</v>
       </c>
       <c r="G68" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3840,7 +3840,7 @@
         <v>15</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3863,13 +3863,13 @@
         <v>237</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="H70" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3921,10 +3921,10 @@
         <v>243</v>
       </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -3950,10 +3950,10 @@
         <v>246</v>
       </c>
       <c r="G73" t="s">
-        <v>247</v>
+        <v>70</v>
       </c>
       <c r="H73" t="s">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -3970,19 +3970,19 @@
         <v>10</v>
       </c>
       <c r="D74" t="s">
+        <v>247</v>
+      </c>
+      <c r="E74" t="s">
+        <v>248</v>
+      </c>
+      <c r="F74" t="s">
         <v>249</v>
       </c>
-      <c r="E74" t="s">
-        <v>250</v>
-      </c>
-      <c r="F74" t="s">
-        <v>251</v>
-      </c>
       <c r="G74" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -3999,19 +3999,19 @@
         <v>10</v>
       </c>
       <c r="D75" t="s">
+        <v>250</v>
+      </c>
+      <c r="E75" t="s">
+        <v>251</v>
+      </c>
+      <c r="F75" t="s">
         <v>252</v>
       </c>
-      <c r="E75" t="s">
+      <c r="G75" t="s">
         <v>253</v>
       </c>
-      <c r="F75" t="s">
+      <c r="H75" t="s">
         <v>254</v>
-      </c>
-      <c r="G75" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" t="s">
-        <v>15</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -4037,10 +4037,10 @@
         <v>257</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="H76" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -4066,10 +4066,10 @@
         <v>260</v>
       </c>
       <c r="G77" t="s">
-        <v>261</v>
+        <v>188</v>
       </c>
       <c r="H77" t="s">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -4086,13 +4086,13 @@
         <v>10</v>
       </c>
       <c r="D78" t="s">
+        <v>261</v>
+      </c>
+      <c r="E78" t="s">
+        <v>262</v>
+      </c>
+      <c r="F78" t="s">
         <v>263</v>
-      </c>
-      <c r="E78" t="s">
-        <v>264</v>
-      </c>
-      <c r="F78" t="s">
-        <v>265</v>
       </c>
       <c r="G78" t="s">
         <v>14</v>
@@ -4115,22 +4115,22 @@
         <v>10</v>
       </c>
       <c r="D79" t="s">
+        <v>264</v>
+      </c>
+      <c r="E79" t="s">
+        <v>265</v>
+      </c>
+      <c r="F79" t="s">
         <v>266</v>
       </c>
-      <c r="E79" t="s">
-        <v>267</v>
-      </c>
-      <c r="F79" t="s">
-        <v>268</v>
-      </c>
       <c r="G79" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H79" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -4144,19 +4144,19 @@
         <v>10</v>
       </c>
       <c r="D80" t="s">
+        <v>267</v>
+      </c>
+      <c r="E80" t="s">
+        <v>268</v>
+      </c>
+      <c r="F80" t="s">
         <v>269</v>
       </c>
-      <c r="E80" t="s">
-        <v>270</v>
-      </c>
-      <c r="F80" t="s">
-        <v>271</v>
-      </c>
       <c r="G80" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -4173,13 +4173,13 @@
         <v>10</v>
       </c>
       <c r="D81" t="s">
+        <v>270</v>
+      </c>
+      <c r="E81" t="s">
+        <v>271</v>
+      </c>
+      <c r="F81" t="s">
         <v>272</v>
-      </c>
-      <c r="E81" t="s">
-        <v>273</v>
-      </c>
-      <c r="F81" t="s">
-        <v>274</v>
       </c>
       <c r="G81" t="s">
         <v>14</v>
@@ -4202,19 +4202,19 @@
         <v>10</v>
       </c>
       <c r="D82" t="s">
+        <v>273</v>
+      </c>
+      <c r="E82" t="s">
+        <v>274</v>
+      </c>
+      <c r="F82" t="s">
         <v>275</v>
       </c>
-      <c r="E82" t="s">
-        <v>276</v>
-      </c>
-      <c r="F82" t="s">
-        <v>277</v>
-      </c>
       <c r="G82" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -4231,13 +4231,13 @@
         <v>10</v>
       </c>
       <c r="D83" t="s">
+        <v>276</v>
+      </c>
+      <c r="E83" t="s">
+        <v>277</v>
+      </c>
+      <c r="F83" t="s">
         <v>278</v>
-      </c>
-      <c r="E83" t="s">
-        <v>279</v>
-      </c>
-      <c r="F83" t="s">
-        <v>280</v>
       </c>
       <c r="G83" t="s">
         <v>14</v>
@@ -4260,19 +4260,19 @@
         <v>10</v>
       </c>
       <c r="D84" t="s">
+        <v>279</v>
+      </c>
+      <c r="E84" t="s">
+        <v>280</v>
+      </c>
+      <c r="F84" t="s">
         <v>281</v>
       </c>
-      <c r="E84" t="s">
-        <v>282</v>
-      </c>
-      <c r="F84" t="s">
-        <v>283</v>
-      </c>
       <c r="G84" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -4289,22 +4289,22 @@
         <v>10</v>
       </c>
       <c r="D85" t="s">
+        <v>282</v>
+      </c>
+      <c r="E85" t="s">
+        <v>283</v>
+      </c>
+      <c r="F85" t="s">
         <v>284</v>
       </c>
-      <c r="E85" t="s">
-        <v>285</v>
-      </c>
-      <c r="F85" t="s">
-        <v>286</v>
-      </c>
       <c r="G85" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4318,22 +4318,22 @@
         <v>10</v>
       </c>
       <c r="D86" t="s">
+        <v>285</v>
+      </c>
+      <c r="E86" t="s">
+        <v>286</v>
+      </c>
+      <c r="F86" t="s">
         <v>287</v>
       </c>
-      <c r="E86" t="s">
-        <v>288</v>
-      </c>
-      <c r="F86" t="s">
-        <v>289</v>
-      </c>
       <c r="G86" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4347,13 +4347,13 @@
         <v>10</v>
       </c>
       <c r="D87" t="s">
+        <v>288</v>
+      </c>
+      <c r="E87" t="s">
+        <v>289</v>
+      </c>
+      <c r="F87" t="s">
         <v>290</v>
-      </c>
-      <c r="E87" t="s">
-        <v>291</v>
-      </c>
-      <c r="F87" t="s">
-        <v>292</v>
       </c>
       <c r="G87" t="s">
         <v>14</v>
@@ -4376,14 +4376,14 @@
         <v>10</v>
       </c>
       <c r="D88" t="s">
+        <v>291</v>
+      </c>
+      <c r="E88" t="s">
+        <v>292</v>
+      </c>
+      <c r="F88" t="s">
         <v>293</v>
       </c>
-      <c r="E88" t="s">
-        <v>294</v>
-      </c>
-      <c r="F88" t="s">
-        <v>295</v>
-      </c>
       <c r="G88" t="s">
         <v>14</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>15</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4405,13 +4405,13 @@
         <v>10</v>
       </c>
       <c r="D89" t="s">
+        <v>294</v>
+      </c>
+      <c r="E89" t="s">
+        <v>295</v>
+      </c>
+      <c r="F89" t="s">
         <v>296</v>
-      </c>
-      <c r="E89" t="s">
-        <v>297</v>
-      </c>
-      <c r="F89" t="s">
-        <v>298</v>
       </c>
       <c r="G89" t="s">
         <v>14</v>
@@ -4434,13 +4434,13 @@
         <v>10</v>
       </c>
       <c r="D90" t="s">
+        <v>297</v>
+      </c>
+      <c r="E90" t="s">
+        <v>298</v>
+      </c>
+      <c r="F90" t="s">
         <v>299</v>
-      </c>
-      <c r="E90" t="s">
-        <v>300</v>
-      </c>
-      <c r="F90" t="s">
-        <v>301</v>
       </c>
       <c r="G90" t="s">
         <v>14</v>
@@ -4463,22 +4463,22 @@
         <v>10</v>
       </c>
       <c r="D91" t="s">
+        <v>300</v>
+      </c>
+      <c r="E91" t="s">
+        <v>301</v>
+      </c>
+      <c r="F91" t="s">
         <v>302</v>
       </c>
-      <c r="E91" t="s">
-        <v>303</v>
-      </c>
-      <c r="F91" t="s">
-        <v>304</v>
-      </c>
       <c r="G91" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="H91" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4492,13 +4492,13 @@
         <v>10</v>
       </c>
       <c r="D92" t="s">
+        <v>303</v>
+      </c>
+      <c r="E92" t="s">
+        <v>304</v>
+      </c>
+      <c r="F92" t="s">
         <v>305</v>
-      </c>
-      <c r="E92" t="s">
-        <v>306</v>
-      </c>
-      <c r="F92" t="s">
-        <v>307</v>
       </c>
       <c r="G92" t="s">
         <v>14</v>
@@ -4521,22 +4521,22 @@
         <v>10</v>
       </c>
       <c r="D93" t="s">
+        <v>306</v>
+      </c>
+      <c r="E93" t="s">
+        <v>307</v>
+      </c>
+      <c r="F93" t="s">
         <v>308</v>
       </c>
-      <c r="E93" t="s">
-        <v>309</v>
-      </c>
-      <c r="F93" t="s">
-        <v>310</v>
-      </c>
       <c r="G93" t="s">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4550,13 +4550,13 @@
         <v>10</v>
       </c>
       <c r="D94" t="s">
+        <v>309</v>
+      </c>
+      <c r="E94" t="s">
+        <v>310</v>
+      </c>
+      <c r="F94" t="s">
         <v>311</v>
-      </c>
-      <c r="E94" t="s">
-        <v>312</v>
-      </c>
-      <c r="F94" t="s">
-        <v>313</v>
       </c>
       <c r="G94" t="s">
         <v>14</v>
@@ -4579,22 +4579,22 @@
         <v>10</v>
       </c>
       <c r="D95" t="s">
+        <v>312</v>
+      </c>
+      <c r="E95" t="s">
+        <v>313</v>
+      </c>
+      <c r="F95" t="s">
         <v>314</v>
       </c>
-      <c r="E95" t="s">
-        <v>315</v>
-      </c>
-      <c r="F95" t="s">
-        <v>316</v>
-      </c>
       <c r="G95" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="H95" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4608,19 +4608,19 @@
         <v>10</v>
       </c>
       <c r="D96" t="s">
+        <v>315</v>
+      </c>
+      <c r="E96" t="s">
+        <v>316</v>
+      </c>
+      <c r="F96" t="s">
         <v>317</v>
       </c>
-      <c r="E96" t="s">
-        <v>318</v>
-      </c>
-      <c r="F96" t="s">
-        <v>319</v>
-      </c>
       <c r="G96" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -4637,19 +4637,19 @@
         <v>10</v>
       </c>
       <c r="D97" t="s">
+        <v>318</v>
+      </c>
+      <c r="E97" t="s">
+        <v>319</v>
+      </c>
+      <c r="F97" t="s">
         <v>320</v>
       </c>
-      <c r="E97" t="s">
-        <v>321</v>
-      </c>
-      <c r="F97" t="s">
-        <v>322</v>
-      </c>
       <c r="G97" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="H97" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -4666,22 +4666,22 @@
         <v>10</v>
       </c>
       <c r="D98" t="s">
+        <v>321</v>
+      </c>
+      <c r="E98" t="s">
+        <v>322</v>
+      </c>
+      <c r="F98" t="s">
         <v>323</v>
       </c>
-      <c r="E98" t="s">
-        <v>324</v>
-      </c>
-      <c r="F98" t="s">
-        <v>325</v>
-      </c>
       <c r="G98" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="H98" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4695,19 +4695,19 @@
         <v>10</v>
       </c>
       <c r="D99" t="s">
+        <v>324</v>
+      </c>
+      <c r="E99" t="s">
+        <v>325</v>
+      </c>
+      <c r="F99" t="s">
         <v>326</v>
       </c>
-      <c r="E99" t="s">
-        <v>327</v>
-      </c>
-      <c r="F99" t="s">
-        <v>328</v>
-      </c>
       <c r="G99" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -4724,19 +4724,19 @@
         <v>10</v>
       </c>
       <c r="D100" t="s">
+        <v>327</v>
+      </c>
+      <c r="E100" t="s">
+        <v>328</v>
+      </c>
+      <c r="F100" t="s">
         <v>329</v>
       </c>
-      <c r="E100" t="s">
-        <v>330</v>
-      </c>
-      <c r="F100" t="s">
-        <v>331</v>
-      </c>
       <c r="G100" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="H100" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -4753,22 +4753,22 @@
         <v>10</v>
       </c>
       <c r="D101" t="s">
+        <v>330</v>
+      </c>
+      <c r="E101" t="s">
+        <v>331</v>
+      </c>
+      <c r="F101" t="s">
         <v>332</v>
       </c>
-      <c r="E101" t="s">
-        <v>333</v>
-      </c>
-      <c r="F101" t="s">
-        <v>334</v>
-      </c>
       <c r="G101" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4782,22 +4782,22 @@
         <v>10</v>
       </c>
       <c r="D102" t="s">
+        <v>333</v>
+      </c>
+      <c r="E102" t="s">
+        <v>334</v>
+      </c>
+      <c r="F102" t="s">
         <v>335</v>
       </c>
-      <c r="E102" t="s">
-        <v>336</v>
-      </c>
-      <c r="F102" t="s">
-        <v>337</v>
-      </c>
       <c r="G102" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4811,13 +4811,13 @@
         <v>10</v>
       </c>
       <c r="D103" t="s">
+        <v>336</v>
+      </c>
+      <c r="E103" t="s">
+        <v>337</v>
+      </c>
+      <c r="F103" t="s">
         <v>338</v>
-      </c>
-      <c r="E103" t="s">
-        <v>339</v>
-      </c>
-      <c r="F103" t="s">
-        <v>340</v>
       </c>
       <c r="G103" t="s">
         <v>14</v>
@@ -4840,13 +4840,13 @@
         <v>10</v>
       </c>
       <c r="D104" t="s">
+        <v>339</v>
+      </c>
+      <c r="E104" t="s">
+        <v>340</v>
+      </c>
+      <c r="F104" t="s">
         <v>341</v>
-      </c>
-      <c r="E104" t="s">
-        <v>342</v>
-      </c>
-      <c r="F104" t="s">
-        <v>343</v>
       </c>
       <c r="G104" t="s">
         <v>14</v>
@@ -4869,14 +4869,14 @@
         <v>10</v>
       </c>
       <c r="D105" t="s">
+        <v>342</v>
+      </c>
+      <c r="E105" t="s">
+        <v>343</v>
+      </c>
+      <c r="F105" t="s">
         <v>344</v>
       </c>
-      <c r="E105" t="s">
-        <v>345</v>
-      </c>
-      <c r="F105" t="s">
-        <v>346</v>
-      </c>
       <c r="G105" t="s">
         <v>14</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>15</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4898,14 +4898,14 @@
         <v>10</v>
       </c>
       <c r="D106" t="s">
+        <v>345</v>
+      </c>
+      <c r="E106" t="s">
+        <v>346</v>
+      </c>
+      <c r="F106" t="s">
         <v>347</v>
       </c>
-      <c r="E106" t="s">
-        <v>348</v>
-      </c>
-      <c r="F106" t="s">
-        <v>349</v>
-      </c>
       <c r="G106" t="s">
         <v>14</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>15</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4927,22 +4927,22 @@
         <v>10</v>
       </c>
       <c r="D107" t="s">
+        <v>348</v>
+      </c>
+      <c r="E107" t="s">
+        <v>349</v>
+      </c>
+      <c r="F107" t="s">
         <v>350</v>
       </c>
-      <c r="E107" t="s">
-        <v>351</v>
-      </c>
-      <c r="F107" t="s">
-        <v>352</v>
-      </c>
       <c r="G107" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H107" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4956,22 +4956,22 @@
         <v>10</v>
       </c>
       <c r="D108" t="s">
+        <v>351</v>
+      </c>
+      <c r="E108" t="s">
+        <v>352</v>
+      </c>
+      <c r="F108" t="s">
         <v>353</v>
       </c>
-      <c r="E108" t="s">
-        <v>354</v>
-      </c>
-      <c r="F108" t="s">
-        <v>355</v>
-      </c>
       <c r="G108" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4985,13 +4985,13 @@
         <v>10</v>
       </c>
       <c r="D109" t="s">
+        <v>354</v>
+      </c>
+      <c r="E109" t="s">
+        <v>355</v>
+      </c>
+      <c r="F109" t="s">
         <v>356</v>
-      </c>
-      <c r="E109" t="s">
-        <v>357</v>
-      </c>
-      <c r="F109" t="s">
-        <v>358</v>
       </c>
       <c r="G109" t="s">
         <v>14</v>
@@ -5014,22 +5014,22 @@
         <v>10</v>
       </c>
       <c r="D110" t="s">
+        <v>357</v>
+      </c>
+      <c r="E110" t="s">
+        <v>358</v>
+      </c>
+      <c r="F110" t="s">
         <v>359</v>
       </c>
-      <c r="E110" t="s">
-        <v>360</v>
-      </c>
-      <c r="F110" t="s">
-        <v>361</v>
-      </c>
       <c r="G110" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="H110" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -5043,19 +5043,19 @@
         <v>10</v>
       </c>
       <c r="D111" t="s">
+        <v>360</v>
+      </c>
+      <c r="E111" t="s">
+        <v>361</v>
+      </c>
+      <c r="F111" t="s">
         <v>362</v>
       </c>
-      <c r="E111" t="s">
-        <v>363</v>
-      </c>
-      <c r="F111" t="s">
-        <v>364</v>
-      </c>
       <c r="G111" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H111" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I111">
         <v>2</v>
@@ -5072,19 +5072,19 @@
         <v>10</v>
       </c>
       <c r="D112" t="s">
+        <v>363</v>
+      </c>
+      <c r="E112" t="s">
+        <v>364</v>
+      </c>
+      <c r="F112" t="s">
         <v>365</v>
       </c>
-      <c r="E112" t="s">
-        <v>366</v>
-      </c>
-      <c r="F112" t="s">
-        <v>367</v>
-      </c>
       <c r="G112" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -5101,19 +5101,19 @@
         <v>10</v>
       </c>
       <c r="D113" t="s">
+        <v>366</v>
+      </c>
+      <c r="E113" t="s">
+        <v>367</v>
+      </c>
+      <c r="F113" t="s">
         <v>368</v>
       </c>
-      <c r="E113" t="s">
-        <v>369</v>
-      </c>
-      <c r="F113" t="s">
-        <v>370</v>
-      </c>
       <c r="G113" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="H113" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -5130,19 +5130,19 @@
         <v>10</v>
       </c>
       <c r="D114" t="s">
+        <v>369</v>
+      </c>
+      <c r="E114" t="s">
+        <v>370</v>
+      </c>
+      <c r="F114" t="s">
         <v>371</v>
       </c>
-      <c r="E114" t="s">
-        <v>372</v>
-      </c>
-      <c r="F114" t="s">
-        <v>373</v>
-      </c>
       <c r="G114" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>262</v>
+        <v>15</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -5159,19 +5159,19 @@
         <v>10</v>
       </c>
       <c r="D115" t="s">
+        <v>372</v>
+      </c>
+      <c r="E115" t="s">
+        <v>373</v>
+      </c>
+      <c r="F115" t="s">
         <v>374</v>
       </c>
-      <c r="E115" t="s">
-        <v>375</v>
-      </c>
-      <c r="F115" t="s">
-        <v>376</v>
-      </c>
       <c r="G115" t="s">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c r="I115">
         <v>2</v>
@@ -5188,13 +5188,13 @@
         <v>10</v>
       </c>
       <c r="D116" t="s">
+        <v>375</v>
+      </c>
+      <c r="E116" t="s">
+        <v>376</v>
+      </c>
+      <c r="F116" t="s">
         <v>377</v>
-      </c>
-      <c r="E116" t="s">
-        <v>378</v>
-      </c>
-      <c r="F116" t="s">
-        <v>379</v>
       </c>
       <c r="G116" t="s">
         <v>14</v>
@@ -5217,14 +5217,14 @@
         <v>10</v>
       </c>
       <c r="D117" t="s">
+        <v>378</v>
+      </c>
+      <c r="E117" t="s">
+        <v>379</v>
+      </c>
+      <c r="F117" t="s">
         <v>380</v>
       </c>
-      <c r="E117" t="s">
-        <v>381</v>
-      </c>
-      <c r="F117" t="s">
-        <v>382</v>
-      </c>
       <c r="G117" t="s">
         <v>14</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>15</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -5246,19 +5246,19 @@
         <v>10</v>
       </c>
       <c r="D118" t="s">
+        <v>381</v>
+      </c>
+      <c r="E118" t="s">
+        <v>382</v>
+      </c>
+      <c r="F118" t="s">
         <v>383</v>
       </c>
-      <c r="E118" t="s">
-        <v>384</v>
-      </c>
-      <c r="F118" t="s">
-        <v>385</v>
-      </c>
       <c r="G118" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H118" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -5275,19 +5275,19 @@
         <v>10</v>
       </c>
       <c r="D119" t="s">
+        <v>384</v>
+      </c>
+      <c r="E119" t="s">
+        <v>385</v>
+      </c>
+      <c r="F119" t="s">
         <v>386</v>
       </c>
-      <c r="E119" t="s">
-        <v>387</v>
-      </c>
-      <c r="F119" t="s">
-        <v>388</v>
-      </c>
       <c r="G119" t="s">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="H119" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -5304,19 +5304,19 @@
         <v>10</v>
       </c>
       <c r="D120" t="s">
+        <v>387</v>
+      </c>
+      <c r="E120" t="s">
+        <v>388</v>
+      </c>
+      <c r="F120" t="s">
         <v>389</v>
       </c>
-      <c r="E120" t="s">
-        <v>390</v>
-      </c>
-      <c r="F120" t="s">
-        <v>391</v>
-      </c>
       <c r="G120" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="H120" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -5333,19 +5333,19 @@
         <v>10</v>
       </c>
       <c r="D121" t="s">
+        <v>390</v>
+      </c>
+      <c r="E121" t="s">
+        <v>391</v>
+      </c>
+      <c r="F121" t="s">
         <v>392</v>
       </c>
-      <c r="E121" t="s">
-        <v>393</v>
-      </c>
-      <c r="F121" t="s">
-        <v>394</v>
-      </c>
       <c r="G121" t="s">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="H121" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -5362,22 +5362,22 @@
         <v>10</v>
       </c>
       <c r="D122" t="s">
+        <v>393</v>
+      </c>
+      <c r="E122" t="s">
+        <v>394</v>
+      </c>
+      <c r="F122" t="s">
         <v>395</v>
       </c>
-      <c r="E122" t="s">
-        <v>396</v>
-      </c>
-      <c r="F122" t="s">
-        <v>397</v>
-      </c>
       <c r="G122" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H122" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -5391,19 +5391,19 @@
         <v>10</v>
       </c>
       <c r="D123" t="s">
+        <v>396</v>
+      </c>
+      <c r="E123" t="s">
+        <v>397</v>
+      </c>
+      <c r="F123" t="s">
         <v>398</v>
       </c>
-      <c r="E123" t="s">
-        <v>399</v>
-      </c>
-      <c r="F123" t="s">
-        <v>400</v>
-      </c>
       <c r="G123" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="H123" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -5420,19 +5420,19 @@
         <v>10</v>
       </c>
       <c r="D124" t="s">
+        <v>399</v>
+      </c>
+      <c r="E124" t="s">
+        <v>400</v>
+      </c>
+      <c r="F124" t="s">
         <v>401</v>
       </c>
-      <c r="E124" t="s">
-        <v>402</v>
-      </c>
-      <c r="F124" t="s">
-        <v>403</v>
-      </c>
       <c r="G124" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -5449,22 +5449,22 @@
         <v>10</v>
       </c>
       <c r="D125" t="s">
+        <v>402</v>
+      </c>
+      <c r="E125" t="s">
+        <v>403</v>
+      </c>
+      <c r="F125" t="s">
         <v>404</v>
       </c>
-      <c r="E125" t="s">
-        <v>405</v>
-      </c>
-      <c r="F125" t="s">
-        <v>406</v>
-      </c>
       <c r="G125" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -5478,19 +5478,19 @@
         <v>10</v>
       </c>
       <c r="D126" t="s">
+        <v>405</v>
+      </c>
+      <c r="E126" t="s">
+        <v>406</v>
+      </c>
+      <c r="F126" t="s">
         <v>407</v>
       </c>
-      <c r="E126" t="s">
-        <v>408</v>
-      </c>
-      <c r="F126" t="s">
-        <v>409</v>
-      </c>
       <c r="G126" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="H126" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="I126">
         <v>2</v>
@@ -5507,13 +5507,13 @@
         <v>10</v>
       </c>
       <c r="D127" t="s">
+        <v>408</v>
+      </c>
+      <c r="E127" t="s">
+        <v>409</v>
+      </c>
+      <c r="F127" t="s">
         <v>410</v>
-      </c>
-      <c r="E127" t="s">
-        <v>411</v>
-      </c>
-      <c r="F127" t="s">
-        <v>412</v>
       </c>
       <c r="G127" t="s">
         <v>14</v>
@@ -5536,14 +5536,14 @@
         <v>10</v>
       </c>
       <c r="D128" t="s">
+        <v>411</v>
+      </c>
+      <c r="E128" t="s">
+        <v>412</v>
+      </c>
+      <c r="F128" t="s">
         <v>413</v>
       </c>
-      <c r="E128" t="s">
-        <v>414</v>
-      </c>
-      <c r="F128" t="s">
-        <v>415</v>
-      </c>
       <c r="G128" t="s">
         <v>14</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>15</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5565,22 +5565,22 @@
         <v>10</v>
       </c>
       <c r="D129" t="s">
+        <v>414</v>
+      </c>
+      <c r="E129" t="s">
+        <v>415</v>
+      </c>
+      <c r="F129" t="s">
         <v>416</v>
       </c>
-      <c r="E129" t="s">
-        <v>417</v>
-      </c>
-      <c r="F129" t="s">
-        <v>418</v>
-      </c>
       <c r="G129" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="H129" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5594,22 +5594,22 @@
         <v>10</v>
       </c>
       <c r="D130" t="s">
+        <v>417</v>
+      </c>
+      <c r="E130" t="s">
+        <v>418</v>
+      </c>
+      <c r="F130" t="s">
         <v>419</v>
       </c>
-      <c r="E130" t="s">
-        <v>420</v>
-      </c>
-      <c r="F130" t="s">
-        <v>421</v>
-      </c>
       <c r="G130" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5623,22 +5623,22 @@
         <v>10</v>
       </c>
       <c r="D131" t="s">
+        <v>420</v>
+      </c>
+      <c r="E131" t="s">
+        <v>421</v>
+      </c>
+      <c r="F131" t="s">
         <v>422</v>
       </c>
-      <c r="E131" t="s">
-        <v>423</v>
-      </c>
-      <c r="F131" t="s">
-        <v>424</v>
-      </c>
       <c r="G131" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5652,13 +5652,13 @@
         <v>10</v>
       </c>
       <c r="D132" t="s">
+        <v>423</v>
+      </c>
+      <c r="E132" t="s">
+        <v>424</v>
+      </c>
+      <c r="F132" t="s">
         <v>425</v>
-      </c>
-      <c r="E132" t="s">
-        <v>426</v>
-      </c>
-      <c r="F132" t="s">
-        <v>427</v>
       </c>
       <c r="G132" t="s">
         <v>14</v>
@@ -5681,14 +5681,14 @@
         <v>10</v>
       </c>
       <c r="D133" t="s">
+        <v>426</v>
+      </c>
+      <c r="E133" t="s">
+        <v>427</v>
+      </c>
+      <c r="F133" t="s">
         <v>428</v>
       </c>
-      <c r="E133" t="s">
-        <v>429</v>
-      </c>
-      <c r="F133" t="s">
-        <v>430</v>
-      </c>
       <c r="G133" t="s">
         <v>14</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>15</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5710,14 +5710,14 @@
         <v>10</v>
       </c>
       <c r="D134" t="s">
+        <v>429</v>
+      </c>
+      <c r="E134" t="s">
+        <v>430</v>
+      </c>
+      <c r="F134" t="s">
         <v>431</v>
       </c>
-      <c r="E134" t="s">
-        <v>432</v>
-      </c>
-      <c r="F134" t="s">
-        <v>433</v>
-      </c>
       <c r="G134" t="s">
         <v>14</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>15</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5739,19 +5739,19 @@
         <v>10</v>
       </c>
       <c r="D135" t="s">
+        <v>432</v>
+      </c>
+      <c r="E135" t="s">
+        <v>433</v>
+      </c>
+      <c r="F135" t="s">
         <v>434</v>
       </c>
-      <c r="E135" t="s">
-        <v>435</v>
-      </c>
-      <c r="F135" t="s">
-        <v>436</v>
-      </c>
       <c r="G135" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -5768,14 +5768,14 @@
         <v>10</v>
       </c>
       <c r="D136" t="s">
+        <v>435</v>
+      </c>
+      <c r="E136" t="s">
+        <v>436</v>
+      </c>
+      <c r="F136" t="s">
         <v>437</v>
       </c>
-      <c r="E136" t="s">
-        <v>438</v>
-      </c>
-      <c r="F136" t="s">
-        <v>439</v>
-      </c>
       <c r="G136" t="s">
         <v>14</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>15</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5797,14 +5797,14 @@
         <v>10</v>
       </c>
       <c r="D137" t="s">
+        <v>438</v>
+      </c>
+      <c r="E137" t="s">
+        <v>439</v>
+      </c>
+      <c r="F137" t="s">
         <v>440</v>
       </c>
-      <c r="E137" t="s">
-        <v>441</v>
-      </c>
-      <c r="F137" t="s">
-        <v>442</v>
-      </c>
       <c r="G137" t="s">
         <v>14</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>15</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5826,22 +5826,22 @@
         <v>10</v>
       </c>
       <c r="D138" t="s">
+        <v>441</v>
+      </c>
+      <c r="E138" t="s">
+        <v>442</v>
+      </c>
+      <c r="F138" t="s">
         <v>443</v>
       </c>
-      <c r="E138" t="s">
-        <v>444</v>
-      </c>
-      <c r="F138" t="s">
-        <v>445</v>
-      </c>
       <c r="G138" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="H138" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5855,19 +5855,19 @@
         <v>10</v>
       </c>
       <c r="D139" t="s">
+        <v>444</v>
+      </c>
+      <c r="E139" t="s">
+        <v>445</v>
+      </c>
+      <c r="F139" t="s">
         <v>446</v>
       </c>
-      <c r="E139" t="s">
-        <v>447</v>
-      </c>
-      <c r="F139" t="s">
-        <v>448</v>
-      </c>
       <c r="G139" t="s">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>248</v>
+        <v>15</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -5884,22 +5884,22 @@
         <v>10</v>
       </c>
       <c r="D140" t="s">
+        <v>447</v>
+      </c>
+      <c r="E140" t="s">
+        <v>448</v>
+      </c>
+      <c r="F140" t="s">
         <v>449</v>
       </c>
-      <c r="E140" t="s">
-        <v>450</v>
-      </c>
-      <c r="F140" t="s">
-        <v>451</v>
-      </c>
       <c r="G140" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5913,13 +5913,13 @@
         <v>10</v>
       </c>
       <c r="D141" t="s">
+        <v>450</v>
+      </c>
+      <c r="E141" t="s">
+        <v>451</v>
+      </c>
+      <c r="F141" t="s">
         <v>452</v>
-      </c>
-      <c r="E141" t="s">
-        <v>453</v>
-      </c>
-      <c r="F141" t="s">
-        <v>454</v>
       </c>
       <c r="G141" t="s">
         <v>14</v>
@@ -5942,13 +5942,13 @@
         <v>10</v>
       </c>
       <c r="D142" t="s">
+        <v>453</v>
+      </c>
+      <c r="E142" t="s">
+        <v>454</v>
+      </c>
+      <c r="F142" t="s">
         <v>455</v>
-      </c>
-      <c r="E142" t="s">
-        <v>456</v>
-      </c>
-      <c r="F142" t="s">
-        <v>457</v>
       </c>
       <c r="G142" t="s">
         <v>14</v>
@@ -5971,14 +5971,14 @@
         <v>10</v>
       </c>
       <c r="D143" t="s">
+        <v>456</v>
+      </c>
+      <c r="E143" t="s">
+        <v>457</v>
+      </c>
+      <c r="F143" t="s">
         <v>458</v>
       </c>
-      <c r="E143" t="s">
-        <v>459</v>
-      </c>
-      <c r="F143" t="s">
-        <v>460</v>
-      </c>
       <c r="G143" t="s">
         <v>14</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>15</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -6000,19 +6000,19 @@
         <v>10</v>
       </c>
       <c r="D144" t="s">
+        <v>459</v>
+      </c>
+      <c r="E144" t="s">
+        <v>460</v>
+      </c>
+      <c r="F144" t="s">
         <v>461</v>
       </c>
-      <c r="E144" t="s">
-        <v>462</v>
-      </c>
-      <c r="F144" t="s">
-        <v>463</v>
-      </c>
       <c r="G144" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -6029,19 +6029,19 @@
         <v>10</v>
       </c>
       <c r="D145" t="s">
+        <v>462</v>
+      </c>
+      <c r="E145" t="s">
+        <v>463</v>
+      </c>
+      <c r="F145" t="s">
         <v>464</v>
       </c>
-      <c r="E145" t="s">
-        <v>465</v>
-      </c>
-      <c r="F145" t="s">
-        <v>466</v>
-      </c>
       <c r="G145" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="I145">
         <v>1</v>
@@ -6058,19 +6058,19 @@
         <v>10</v>
       </c>
       <c r="D146" t="s">
+        <v>465</v>
+      </c>
+      <c r="E146" t="s">
+        <v>466</v>
+      </c>
+      <c r="F146" t="s">
         <v>467</v>
       </c>
-      <c r="E146" t="s">
-        <v>468</v>
-      </c>
-      <c r="F146" t="s">
-        <v>469</v>
-      </c>
       <c r="G146" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H146" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I146">
         <v>2</v>
@@ -6087,22 +6087,22 @@
         <v>10</v>
       </c>
       <c r="D147" t="s">
+        <v>468</v>
+      </c>
+      <c r="E147" t="s">
+        <v>469</v>
+      </c>
+      <c r="F147" t="s">
         <v>470</v>
       </c>
-      <c r="E147" t="s">
-        <v>471</v>
-      </c>
-      <c r="F147" t="s">
-        <v>472</v>
-      </c>
       <c r="G147" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -6116,22 +6116,22 @@
         <v>10</v>
       </c>
       <c r="D148" t="s">
+        <v>471</v>
+      </c>
+      <c r="E148" t="s">
+        <v>472</v>
+      </c>
+      <c r="F148" t="s">
         <v>473</v>
       </c>
-      <c r="E148" t="s">
+      <c r="G148" t="s">
         <v>474</v>
       </c>
-      <c r="F148" t="s">
+      <c r="H148" t="s">
         <v>475</v>
       </c>
-      <c r="G148" t="s">
-        <v>14</v>
-      </c>
-      <c r="H148" t="s">
-        <v>15</v>
-      </c>
       <c r="I148">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -6154,13 +6154,13 @@
         <v>478</v>
       </c>
       <c r="G149" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H149" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -6183,13 +6183,13 @@
         <v>481</v>
       </c>
       <c r="G150" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="H150" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="I150">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -6218,7 +6218,7 @@
         <v>15</v>
       </c>
       <c r="I151">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -6241,10 +6241,10 @@
         <v>487</v>
       </c>
       <c r="G152" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="I152">
         <v>1</v>
